--- a/data/model_data/twfe_POEBC_perfirm.xlsx
+++ b/data/model_data/twfe_POEBC_perfirm.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>161.2850513431171</v>
+        <v>322.0746095718231</v>
       </c>
       <c r="C2">
-        <v>81.68240965819435</v>
+        <v>65.81874586437992</v>
       </c>
       <c r="D2">
-        <v>1.974538361662265</v>
+        <v>4.893356829306054</v>
       </c>
       <c r="E2">
-        <v>0.0483890307334876</v>
+        <v>1.075697541931094E-06</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>5.103997807289776</v>
+        <v>10.2276812502937</v>
       </c>
       <c r="C3">
-        <v>21.99382204308952</v>
+        <v>17.72236874130632</v>
       </c>
       <c r="D3">
-        <v>0.2320650679672775</v>
+        <v>0.5771057695270491</v>
       </c>
       <c r="E3">
-        <v>0.8164993119011504</v>
+        <v>0.5639369948955086</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>301.7912871777249</v>
+        <v>603.6314960766808</v>
       </c>
       <c r="C4">
-        <v>113.5574441216959</v>
+        <v>91.50328188078882</v>
       </c>
       <c r="D4">
-        <v>2.657609014643767</v>
+        <v>6.596828918804208</v>
       </c>
       <c r="E4">
-        <v>0.007900915833690562</v>
+        <v>5.441927691560798E-11</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-98.0126709070577</v>
+        <v>-196.0853104751723</v>
       </c>
       <c r="C5">
-        <v>113.5574441217056</v>
+        <v>91.50328188078885</v>
       </c>
       <c r="D5">
-        <v>-0.8631109273823766</v>
+        <v>-2.142931995932492</v>
       </c>
       <c r="E5">
-        <v>0.3881280723178246</v>
+        <v>0.03224639256800722</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-107.1717058136567</v>
+        <v>-214.490022670752</v>
       </c>
       <c r="C6">
-        <v>113.5574441216801</v>
+        <v>91.50328188078092</v>
       </c>
       <c r="D6">
-        <v>-0.9437664491534266</v>
+        <v>-2.344069177214974</v>
       </c>
       <c r="E6">
-        <v>0.345345837692702</v>
+        <v>0.01917809594893117</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>-92.78741474142551</v>
+        <v>-185.8073239913941</v>
       </c>
       <c r="C7">
-        <v>113.9511843433019</v>
+        <v>91.82055322098488</v>
       </c>
       <c r="D7">
-        <v>-0.814273368689911</v>
+        <v>-2.023591859049366</v>
       </c>
       <c r="E7">
-        <v>0.4155366897630129</v>
+        <v>0.04315316091590292</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>-98.06125312285212</v>
+        <v>-195.9976927843808</v>
       </c>
       <c r="C8">
-        <v>113.9511843433031</v>
+        <v>91.82055322097253</v>
       </c>
       <c r="D8">
-        <v>-0.8605549269889194</v>
+        <v>-2.134573207293783</v>
       </c>
       <c r="E8">
-        <v>0.3895346418336797</v>
+        <v>0.03292468876718642</v>
       </c>
     </row>
     <row r="9">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>-44.52968589636533</v>
+        <v>-88.84869026332368</v>
       </c>
       <c r="C9">
-        <v>113.5574441217004</v>
+        <v>91.50328188078244</v>
       </c>
       <c r="D9">
-        <v>-0.3921335694086469</v>
+        <v>-0.9709891103040722</v>
       </c>
       <c r="E9">
-        <v>0.6949803538672534</v>
+        <v>0.3316784079578193</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>37.72415261627889</v>
+        <v>75.73098427441414</v>
       </c>
       <c r="C10">
-        <v>113.9511843433335</v>
+        <v>91.82055322097973</v>
       </c>
       <c r="D10">
-        <v>0.3310553798424462</v>
+        <v>0.8247715965308587</v>
       </c>
       <c r="E10">
-        <v>0.7406199437536498</v>
+        <v>0.4096057406777883</v>
       </c>
     </row>
     <row r="11">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>-116.6575794439385</v>
+        <v>-233.1855794322976</v>
       </c>
       <c r="C11">
-        <v>113.9511843433213</v>
+        <v>91.82055322098509</v>
       </c>
       <c r="D11">
-        <v>-1.023750478033323</v>
+        <v>-2.539579334390291</v>
       </c>
       <c r="E11">
-        <v>0.306014869169883</v>
+        <v>0.01117839562169618</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-119.0592149839102</v>
+        <v>-238.152117797302</v>
       </c>
       <c r="C12">
-        <v>113.9511843433207</v>
+        <v>91.82055322098211</v>
       </c>
       <c r="D12">
-        <v>-1.044826481357136</v>
+        <v>-2.593668949305365</v>
       </c>
       <c r="E12">
-        <v>0.2961661204833406</v>
+        <v>0.009569387801393705</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>-104.569645792406</v>
+        <v>-209.0589312825196</v>
       </c>
       <c r="C13">
-        <v>113.9511843432824</v>
+        <v>91.82055322098553</v>
       </c>
       <c r="D13">
-        <v>-0.9176705480952777</v>
+        <v>-2.2768206458022</v>
       </c>
       <c r="E13">
-        <v>0.358846532492242</v>
+        <v>0.02290869165598803</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>-110.9490489067194</v>
+        <v>-221.694479836277</v>
       </c>
       <c r="C14">
-        <v>113.5311462210556</v>
+        <v>91.48209133502911</v>
       </c>
       <c r="D14">
-        <v>-0.9772564851119474</v>
+        <v>-2.423364798519737</v>
       </c>
       <c r="E14">
-        <v>0.3285011114653317</v>
+        <v>0.01547118950570911</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>-134.8930951279606</v>
+        <v>-269.6305508514673</v>
       </c>
       <c r="C15">
-        <v>113.9511843433173</v>
+        <v>91.82055322098769</v>
       </c>
       <c r="D15">
-        <v>-1.183779667629855</v>
+        <v>-2.936494514496532</v>
       </c>
       <c r="E15">
-        <v>0.2365704250456935</v>
+        <v>0.003359724292042735</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>-124.7750497714375</v>
+        <v>-249.5217908054773</v>
       </c>
       <c r="C16">
-        <v>113.5311462210713</v>
+        <v>91.48209133502611</v>
       </c>
       <c r="D16">
-        <v>-1.099038051888173</v>
+        <v>-2.727547951343587</v>
       </c>
       <c r="E16">
-        <v>0.2718174150056474</v>
+        <v>0.006439931732169004</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>-88.74985762483942</v>
+        <v>-177.2554109827417</v>
       </c>
       <c r="C17">
-        <v>113.5311462210474</v>
+        <v>91.48209133504135</v>
       </c>
       <c r="D17">
-        <v>-0.7817225543732436</v>
+        <v>-1.937596838856324</v>
       </c>
       <c r="E17">
-        <v>0.4344237725392099</v>
+        <v>0.05282178471554193</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>-131.9675243258555</v>
+        <v>-264.5362805275895</v>
       </c>
       <c r="C18">
-        <v>113.9511843433192</v>
+        <v>91.82055322097617</v>
       </c>
       <c r="D18">
-        <v>-1.158105772101987</v>
+        <v>-2.88101379536403</v>
       </c>
       <c r="E18">
-        <v>0.2468898096013485</v>
+        <v>0.004008849273090532</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>-95.01832659093057</v>
+        <v>-189.8324732114629</v>
       </c>
       <c r="C19">
-        <v>113.5311462210664</v>
+        <v>91.48209133503573</v>
       </c>
       <c r="D19">
-        <v>-0.8369362043250416</v>
+        <v>-2.075077979101261</v>
       </c>
       <c r="E19">
-        <v>0.4026782769557975</v>
+        <v>0.03811481358634471</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>-117.193531053982</v>
+        <v>-234.313452968222</v>
       </c>
       <c r="C20">
-        <v>113.5311462210331</v>
+        <v>91.48209133503076</v>
       </c>
       <c r="D20">
-        <v>-1.032258855431784</v>
+        <v>-2.561304071089786</v>
       </c>
       <c r="E20">
-        <v>0.3020130907903208</v>
+        <v>0.01050529528052208</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>-119.1764153977468</v>
+        <v>-238.1558651718112</v>
       </c>
       <c r="C21">
-        <v>113.9511843433418</v>
+        <v>91.8205532209878</v>
       </c>
       <c r="D21">
-        <v>-1.045854995580046</v>
+        <v>-2.593709761240852</v>
       </c>
       <c r="E21">
-        <v>0.2956909914224248</v>
+        <v>0.009568256182492468</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>-139.8371929302506</v>
+        <v>-279.58287463728</v>
       </c>
       <c r="C22">
-        <v>113.5311462210685</v>
+        <v>91.48209133503241</v>
       </c>
       <c r="D22">
-        <v>-1.231707752319868</v>
+        <v>-3.056148701425847</v>
       </c>
       <c r="E22">
-        <v>0.2181304607282834</v>
+        <v>0.002273493521747276</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>521.9624227648507</v>
+        <v>1044.0220503881</v>
       </c>
       <c r="C23">
-        <v>113.9511843433173</v>
+        <v>91.82055322099099</v>
       </c>
       <c r="D23">
-        <v>4.580579181979002</v>
+        <v>11.37024352135386</v>
       </c>
       <c r="E23">
-        <v>4.777637738504909E-06</v>
+        <v>5.077861553758564E-29</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>499.163234427062</v>
+        <v>998.4656289621589</v>
       </c>
       <c r="C24">
-        <v>113.9511843433305</v>
+        <v>91.82055322098739</v>
       </c>
       <c r="D24">
-        <v>4.380500626681533</v>
+        <v>10.87409729016902</v>
       </c>
       <c r="E24">
-        <v>1.214303540525462E-05</v>
+        <v>9.382070248625687E-27</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>-140.4784028035878</v>
+        <v>-280.6669859029921</v>
       </c>
       <c r="C25">
-        <v>113.9511843432962</v>
+        <v>91.82055322097939</v>
       </c>
       <c r="D25">
-        <v>-1.232794583164438</v>
+        <v>-3.056690207774359</v>
       </c>
       <c r="E25">
-        <v>0.2177246444327814</v>
+        <v>0.002269411246620359</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>-19.00106808888555</v>
+        <v>-37.71733344584678</v>
       </c>
       <c r="C26">
-        <v>113.9511843432951</v>
+        <v>91.82055322097901</v>
       </c>
       <c r="D26">
-        <v>-0.1667474383736283</v>
+        <v>-0.4107722304294415</v>
       </c>
       <c r="E26">
-        <v>0.8675771806699202</v>
+        <v>0.6812862956802743</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>-140.4928553802675</v>
+        <v>-280.8972810179042</v>
       </c>
       <c r="C27">
-        <v>113.5311462210452</v>
+        <v>91.4820913350396</v>
       </c>
       <c r="D27">
-        <v>-1.237482929193085</v>
+        <v>-3.070516610613541</v>
       </c>
       <c r="E27">
-        <v>0.2159802670309066</v>
+        <v>0.00216742731327478</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>-68.73010274447877</v>
+        <v>-137.2984338322703</v>
       </c>
       <c r="C28">
-        <v>113.5311462210494</v>
+        <v>91.48209133504196</v>
       </c>
       <c r="D28">
-        <v>-0.6053854385532117</v>
+        <v>-1.500823077266911</v>
       </c>
       <c r="E28">
-        <v>0.5449571658396524</v>
+        <v>0.1335689802868097</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>-15.73295830141787</v>
+        <v>-31.19322857376051</v>
       </c>
       <c r="C29">
-        <v>113.9511843433151</v>
+        <v>91.82055322097911</v>
       </c>
       <c r="D29">
-        <v>-0.138067527705699</v>
+        <v>-0.3397194580029332</v>
       </c>
       <c r="E29">
-        <v>0.8901939778932679</v>
+        <v>0.7341056941336008</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>-127.5602242187261</v>
+        <v>-255.0421211894896</v>
       </c>
       <c r="C30">
-        <v>113.5311462210363</v>
+        <v>91.48209133503549</v>
       </c>
       <c r="D30">
-        <v>-1.123570301759979</v>
+        <v>-2.787891241526685</v>
       </c>
       <c r="E30">
-        <v>0.2612625862340091</v>
+        <v>0.005358533145265497</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>-107.5043457564151</v>
+        <v>-214.8044919709433</v>
       </c>
       <c r="C31">
-        <v>113.9511843433238</v>
+        <v>91.82055322098043</v>
       </c>
       <c r="D31">
-        <v>-0.9434245582960769</v>
+        <v>-2.33939444313718</v>
       </c>
       <c r="E31">
-        <v>0.3455205935839263</v>
+        <v>0.01941906880132082</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>-130.2146341833888</v>
+        <v>-260.4759186616935</v>
       </c>
       <c r="C32">
-        <v>113.5574441217117</v>
+        <v>91.50328188079759</v>
       </c>
       <c r="D32">
-        <v>-1.146685144162137</v>
+        <v>-2.84662924987782</v>
       </c>
       <c r="E32">
-        <v>0.2515801542100157</v>
+        <v>0.004466353137348178</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>-129.3119956819789</v>
+        <v>-258.4615146449536</v>
       </c>
       <c r="C33">
-        <v>113.5574441217136</v>
+        <v>91.50328188077718</v>
       </c>
       <c r="D33">
-        <v>-1.138736405016119</v>
+        <v>-2.824614695041344</v>
       </c>
       <c r="E33">
-        <v>0.2548811032620336</v>
+        <v>0.004783615528772773</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>-101.4153759288487</v>
+        <v>-202.6028367033525</v>
       </c>
       <c r="C34">
-        <v>113.9511843433198</v>
+        <v>91.82055322097729</v>
       </c>
       <c r="D34">
-        <v>-0.8899896610402718</v>
+        <v>-2.20650856040656</v>
       </c>
       <c r="E34">
-        <v>0.3735248004690794</v>
+        <v>0.027468722533337</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>-134.8458561941492</v>
+        <v>-269.4690633011269</v>
       </c>
       <c r="C35">
-        <v>113.9511843433146</v>
+        <v>91.8205532209837</v>
       </c>
       <c r="D35">
-        <v>-1.18336511350231</v>
+        <v>-2.93473578461892</v>
       </c>
       <c r="E35">
-        <v>0.2367345906642764</v>
+        <v>0.003378735961865445</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>196.131563169956</v>
+        <v>392.5725249796213</v>
       </c>
       <c r="C36">
-        <v>113.9511843432951</v>
+        <v>91.82055322098991</v>
       </c>
       <c r="D36">
-        <v>1.721189334716173</v>
+        <v>4.275431929001713</v>
       </c>
       <c r="E36">
-        <v>0.08529356602036979</v>
+        <v>2.00310537565026E-05</v>
       </c>
     </row>
     <row r="37">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>-137.4414684972172</v>
+        <v>-274.9087825641995</v>
       </c>
       <c r="C37">
-        <v>113.9511843433273</v>
+        <v>91.82055322097783</v>
       </c>
       <c r="D37">
-        <v>-1.206143396308329</v>
+        <v>-2.993978721763924</v>
       </c>
       <c r="E37">
-        <v>0.2278333259665485</v>
+        <v>0.002789519935485404</v>
       </c>
     </row>
     <row r="38">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>-91.51975235997479</v>
+        <v>-182.7239338831135</v>
       </c>
       <c r="C38">
-        <v>113.5574441217127</v>
+        <v>91.50328188078134</v>
       </c>
       <c r="D38">
-        <v>-0.8059335349418609</v>
+        <v>-1.996911259654955</v>
       </c>
       <c r="E38">
-        <v>0.4203289390111552</v>
+        <v>0.04597853294377127</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>-27.20119225642252</v>
+        <v>-54.12575366579075</v>
       </c>
       <c r="C39">
-        <v>113.9511843433</v>
+        <v>91.82055322097889</v>
       </c>
       <c r="D39">
-        <v>-0.2387091666767908</v>
+        <v>-0.5894731818433898</v>
       </c>
       <c r="E39">
-        <v>0.8113433000489623</v>
+        <v>0.5556146140072763</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>-18.9916432162518</v>
+        <v>-37.72068301284195</v>
       </c>
       <c r="C40">
-        <v>113.5311462210561</v>
+        <v>91.48209133502309</v>
       </c>
       <c r="D40">
-        <v>-0.1672813483206912</v>
+        <v>-0.4123286040182701</v>
       </c>
       <c r="E40">
-        <v>0.8671571099081749</v>
+        <v>0.6801455225096338</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>-75.70419300272306</v>
+        <v>-151.4074334746178</v>
       </c>
       <c r="C41">
-        <v>113.5311462210455</v>
+        <v>91.4820913350332</v>
       </c>
       <c r="D41">
-        <v>-0.6668143106326675</v>
+        <v>-1.655049980439572</v>
       </c>
       <c r="E41">
-        <v>0.504929095851901</v>
+        <v>0.09808100457858114</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>-117.1494623038827</v>
+        <v>-234.5716720558438</v>
       </c>
       <c r="C42">
-        <v>113.5311462210352</v>
+        <v>91.48209133502799</v>
       </c>
       <c r="D42">
-        <v>-1.03187069102432</v>
+        <v>-2.564126690073028</v>
       </c>
       <c r="E42">
-        <v>0.3021948957429741</v>
+        <v>0.0104205444545511</v>
       </c>
     </row>
     <row r="43">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>-79.36445413499172</v>
+        <v>-158.667657888227</v>
       </c>
       <c r="C43">
-        <v>113.5311462210505</v>
+        <v>91.48209133503565</v>
       </c>
       <c r="D43">
-        <v>-0.6990544601784024</v>
+        <v>-1.734412228368687</v>
       </c>
       <c r="E43">
-        <v>0.4845585192882503</v>
+        <v>0.0830086151263392</v>
       </c>
     </row>
     <row r="44">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>-49.39803612810847</v>
+        <v>-98.68136693944234</v>
       </c>
       <c r="C44">
-        <v>113.5311462210588</v>
+        <v>91.48209133503877</v>
       </c>
       <c r="D44">
-        <v>-0.4351055879584316</v>
+        <v>-1.078696010326626</v>
       </c>
       <c r="E44">
-        <v>0.6635091913366034</v>
+        <v>0.2808614219240546</v>
       </c>
     </row>
     <row r="45">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>14.69208805770065</v>
+        <v>29.44132644714237</v>
       </c>
       <c r="C45">
-        <v>113.5311462210525</v>
+        <v>91.48209133503997</v>
       </c>
       <c r="D45">
-        <v>0.1294101975249523</v>
+        <v>0.3218261193802158</v>
       </c>
       <c r="E45">
-        <v>0.8970395661697732</v>
+        <v>0.7476201472624846</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>-77.82636084615442</v>
+        <v>-155.6786195207823</v>
       </c>
       <c r="C46">
-        <v>113.5311462210616</v>
+        <v>91.4820913350345</v>
       </c>
       <c r="D46">
-        <v>-0.6855066951813842</v>
+        <v>-1.701738747430261</v>
       </c>
       <c r="E46">
-        <v>0.4930638433758251</v>
+        <v>0.08896942937992532</v>
       </c>
     </row>
     <row r="47">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>-86.30222820636283</v>
+        <v>-172.5568125530378</v>
       </c>
       <c r="C47">
-        <v>113.557444121683</v>
+        <v>91.50328188079303</v>
       </c>
       <c r="D47">
-        <v>-0.7599874131887405</v>
+        <v>-1.88579916486316</v>
       </c>
       <c r="E47">
-        <v>0.4473067641398012</v>
+        <v>0.05947582417034203</v>
       </c>
     </row>
     <row r="48">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>-92.84790604361298</v>
+        <v>-185.6590091068535</v>
       </c>
       <c r="C48">
-        <v>113.5311462210463</v>
+        <v>91.48209133503144</v>
       </c>
       <c r="D48">
-        <v>-0.8178188024530043</v>
+        <v>-2.029457420544983</v>
       </c>
       <c r="E48">
-        <v>0.4135092258475925</v>
+        <v>0.04255211013576268</v>
       </c>
     </row>
     <row r="49">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>-127.4427194875793</v>
+        <v>-255.2331457640866</v>
       </c>
       <c r="C49">
-        <v>113.951184343321</v>
+        <v>91.82055322097897</v>
       </c>
       <c r="D49">
-        <v>-1.118397498209496</v>
+        <v>-2.779695142435403</v>
       </c>
       <c r="E49">
-        <v>0.2634642223593915</v>
+        <v>0.005495078104401215</v>
       </c>
     </row>
     <row r="50">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>-129.4655506031746</v>
+        <v>-259.20722075988</v>
       </c>
       <c r="C50">
-        <v>113.5311462210671</v>
+        <v>91.48209133503057</v>
       </c>
       <c r="D50">
-        <v>-1.140352712999833</v>
+        <v>-2.833420366513021</v>
       </c>
       <c r="E50">
-        <v>0.2542074547254958</v>
+        <v>0.004654340900732427</v>
       </c>
     </row>
     <row r="51">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>-113.2663536414855</v>
+        <v>-226.3793143003542</v>
       </c>
       <c r="C51">
-        <v>113.5311462210597</v>
+        <v>91.48209133503501</v>
       </c>
       <c r="D51">
-        <v>-0.9976676657605605</v>
+        <v>-2.474575198235083</v>
       </c>
       <c r="E51">
-        <v>0.3185007045129015</v>
+        <v>0.01342698159831686</v>
       </c>
     </row>
     <row r="52">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>-125.138451693357</v>
+        <v>-250.2719114354391</v>
       </c>
       <c r="C52">
-        <v>113.5311462210705</v>
+        <v>91.48209133503893</v>
       </c>
       <c r="D52">
-        <v>-1.102238952557429</v>
+        <v>-2.735747595874881</v>
       </c>
       <c r="E52">
-        <v>0.2704239177841215</v>
+        <v>0.006282280423977141</v>
       </c>
     </row>
     <row r="53">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>-110.958836086378</v>
+        <v>-221.7294411794631</v>
       </c>
       <c r="C53">
-        <v>113.531146221051</v>
+        <v>91.48209133504353</v>
       </c>
       <c r="D53">
-        <v>-0.9773426921131879</v>
+        <v>-2.423746964500433</v>
       </c>
       <c r="E53">
-        <v>0.3284584507575464</v>
+        <v>0.01545497132244624</v>
       </c>
     </row>
     <row r="54">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>-123.4136857932163</v>
+        <v>-246.9426465115045</v>
       </c>
       <c r="C54">
-        <v>113.531146221059</v>
+        <v>91.48209133503823</v>
       </c>
       <c r="D54">
-        <v>-1.08704694615621</v>
+        <v>-2.699355064010478</v>
       </c>
       <c r="E54">
-        <v>0.2770813655158344</v>
+        <v>0.00700952824937266</v>
       </c>
     </row>
     <row r="55">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>-125.999180487178</v>
+        <v>-252.2842843219511</v>
       </c>
       <c r="C55">
-        <v>113.5311462210787</v>
+        <v>91.48209133503758</v>
       </c>
       <c r="D55">
-        <v>-1.109820385692401</v>
+        <v>-2.757745047585356</v>
       </c>
       <c r="E55">
-        <v>0.2671429478052054</v>
+        <v>0.005876375481598521</v>
       </c>
     </row>
     <row r="56">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>-131.0831533966481</v>
+        <v>-262.8021232434525</v>
       </c>
       <c r="C56">
-        <v>113.5311462210668</v>
+        <v>91.48209133503296</v>
       </c>
       <c r="D56">
-        <v>-1.154600810084347</v>
+        <v>-2.872716609429028</v>
       </c>
       <c r="E56">
-        <v>0.2483227011967067</v>
+        <v>0.004115170661595731</v>
       </c>
     </row>
     <row r="57">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>-141.7012918865965</v>
+        <v>-284.0982415009562</v>
       </c>
       <c r="C57">
-        <v>113.531146221052</v>
+        <v>91.48209133502539</v>
       </c>
       <c r="D57">
-        <v>-1.248127025958987</v>
+        <v>-3.105506633648466</v>
       </c>
       <c r="E57">
-        <v>0.2120573778819475</v>
+        <v>0.00192783844641687</v>
       </c>
     </row>
     <row r="58">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>-138.7481150228771</v>
+        <v>-277.963707519185</v>
       </c>
       <c r="C58">
-        <v>113.5311462210574</v>
+        <v>91.48209133502652</v>
       </c>
       <c r="D58">
-        <v>-1.22211498466438</v>
+        <v>-3.0384494217696</v>
       </c>
       <c r="E58">
-        <v>0.2217359430842962</v>
+        <v>0.002410687789504283</v>
       </c>
     </row>
     <row r="59">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>-80.12927020740376</v>
+        <v>-160.1708377155017</v>
       </c>
       <c r="C59">
-        <v>113.5311462210519</v>
+        <v>91.48209133503003</v>
       </c>
       <c r="D59">
-        <v>-0.705791079140409</v>
+        <v>-1.750843639209302</v>
       </c>
       <c r="E59">
-        <v>0.4803590492062062</v>
+        <v>0.0801356781587631</v>
       </c>
     </row>
     <row r="60">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>-140.9535981452565</v>
+        <v>-282.9677707781963</v>
       </c>
       <c r="C60">
-        <v>113.5311462210743</v>
+        <v>91.4820913350345</v>
       </c>
       <c r="D60">
-        <v>-1.24154122315284</v>
+        <v>-3.0931493437539</v>
       </c>
       <c r="E60">
-        <v>0.2144784587509917</v>
+        <v>0.002009524199209046</v>
       </c>
     </row>
     <row r="61">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>-96.72992321544486</v>
+        <v>-193.6645400678821</v>
       </c>
       <c r="C61">
-        <v>113.5311462210554</v>
+        <v>91.48209133502756</v>
       </c>
       <c r="D61">
-        <v>-0.8520122136977544</v>
+        <v>-2.116966689782374</v>
       </c>
       <c r="E61">
-        <v>0.394258167797184</v>
+        <v>0.03439349466103745</v>
       </c>
     </row>
     <row r="62">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>-137.8403991221456</v>
+        <v>-276.0535606629846</v>
       </c>
       <c r="C62">
-        <v>113.5311462210539</v>
+        <v>91.48209133502671</v>
       </c>
       <c r="D62">
-        <v>-1.214119681781066</v>
+        <v>-3.017569413143587</v>
       </c>
       <c r="E62">
-        <v>0.2247734868232838</v>
+        <v>0.002582267268166831</v>
       </c>
     </row>
     <row r="63">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>-139.1352561578643</v>
+        <v>-278.7403680802264</v>
       </c>
       <c r="C63">
-        <v>113.5311462210459</v>
+        <v>91.48209133503047</v>
       </c>
       <c r="D63">
-        <v>-1.225524984015989</v>
+        <v>-3.046939176974091</v>
       </c>
       <c r="E63">
-        <v>0.2204494189344981</v>
+        <v>0.002343960655675905</v>
       </c>
     </row>
     <row r="64">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>-107.5386006971933</v>
+        <v>-215.8538237607214</v>
       </c>
       <c r="C64">
-        <v>113.5311462210709</v>
+        <v>91.48209133504109</v>
       </c>
       <c r="D64">
-        <v>-0.947216726657469</v>
+        <v>-2.359519995779122</v>
       </c>
       <c r="E64">
-        <v>0.3435854005284344</v>
+        <v>0.01840015064784445</v>
       </c>
     </row>
     <row r="65">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>-26.11011237104053</v>
+        <v>-52.49269407538539</v>
       </c>
       <c r="C65">
-        <v>113.5311462210384</v>
+        <v>91.48209133504366</v>
       </c>
       <c r="D65">
-        <v>-0.2299819321845451</v>
+        <v>-0.5738029521334</v>
       </c>
       <c r="E65">
-        <v>0.8181175340483579</v>
+        <v>0.5661696783614193</v>
       </c>
     </row>
     <row r="66">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>65.40355223783165</v>
+        <v>130.4997515720074</v>
       </c>
       <c r="C66">
-        <v>113.5311462210388</v>
+        <v>91.48209133503738</v>
       </c>
       <c r="D66">
-        <v>0.5760846641193471</v>
+        <v>1.42650599333234</v>
       </c>
       <c r="E66">
-        <v>0.5645902703230049</v>
+        <v>0.15388811348867</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>-93.68211556602361</v>
+        <v>-187.4872475942229</v>
       </c>
       <c r="C67">
-        <v>113.5311462210447</v>
+        <v>91.48209133503977</v>
       </c>
       <c r="D67">
-        <v>-0.8251666497194076</v>
+        <v>-2.049442080500525</v>
       </c>
       <c r="E67">
-        <v>0.4093260442102742</v>
+        <v>0.04055718614804229</v>
       </c>
     </row>
     <row r="68">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>-134.3972467902618</v>
+        <v>-269.9251011204491</v>
       </c>
       <c r="C68">
-        <v>113.5311462210524</v>
+        <v>91.48209133503205</v>
       </c>
       <c r="D68">
-        <v>-1.183791860328634</v>
+        <v>-2.950578601574714</v>
       </c>
       <c r="E68">
-        <v>0.2365655978919591</v>
+        <v>0.003210957925227511</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>-133.8482444656188</v>
+        <v>-268.0030707451786</v>
       </c>
       <c r="C69">
-        <v>113.9511843432931</v>
+        <v>91.82055322098188</v>
       </c>
       <c r="D69">
-        <v>-1.174610384586992</v>
+        <v>-2.91876994141152</v>
       </c>
       <c r="E69">
-        <v>0.2402203388013759</v>
+        <v>0.003555862480651222</v>
       </c>
     </row>
     <row r="70">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>-97.08945473439654</v>
+        <v>-194.1383259353579</v>
       </c>
       <c r="C70">
-        <v>113.9511843433004</v>
+        <v>91.8205532209858</v>
       </c>
       <c r="D70">
-        <v>-0.8520267278828402</v>
+        <v>-2.114323200254767</v>
       </c>
       <c r="E70">
-        <v>0.3942501131713068</v>
+        <v>0.0346187926217191</v>
       </c>
     </row>
     <row r="71">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B71">
-        <v>-129.9980155557849</v>
+        <v>-260.3335225278065</v>
       </c>
       <c r="C71">
-        <v>113.5311462210675</v>
+        <v>91.48209133503202</v>
       </c>
       <c r="D71">
-        <v>-1.145042747147582</v>
+        <v>-2.845732085139977</v>
       </c>
       <c r="E71">
-        <v>0.2522597513094342</v>
+        <v>0.004478900174334376</v>
       </c>
     </row>
     <row r="72">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>-126.5115910156736</v>
+        <v>-253.0582930630254</v>
       </c>
       <c r="C72">
-        <v>113.5574441217034</v>
+        <v>91.50328188078363</v>
       </c>
       <c r="D72">
-        <v>-1.11407571730909</v>
+        <v>-2.765565211013153</v>
       </c>
       <c r="E72">
-        <v>0.2653134415079627</v>
+        <v>0.005737876263673184</v>
       </c>
     </row>
     <row r="73">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>-135.9424569537836</v>
+        <v>-272.456417817672</v>
       </c>
       <c r="C73">
-        <v>113.5311462210678</v>
+        <v>91.48209133502785</v>
       </c>
       <c r="D73">
-        <v>-1.197402311864945</v>
+        <v>-2.978248680606522</v>
       </c>
       <c r="E73">
-        <v>0.2312205238636914</v>
+        <v>0.002936046684026684</v>
       </c>
     </row>
     <row r="74">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>26.82004853704715</v>
+        <v>53.97511240552534</v>
       </c>
       <c r="C74">
-        <v>113.5574441216856</v>
+        <v>91.50328188078312</v>
       </c>
       <c r="D74">
-        <v>0.2361804524968648</v>
+        <v>0.5898707816387165</v>
       </c>
       <c r="E74">
-        <v>0.8133047033363214</v>
+        <v>0.5553480567572784</v>
       </c>
     </row>
     <row r="75">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>-70.73709630330393</v>
+        <v>-141.2082151610331</v>
       </c>
       <c r="C75">
-        <v>113.5574441217106</v>
+        <v>91.50328188079385</v>
       </c>
       <c r="D75">
-        <v>-0.6229190596037725</v>
+        <v>-1.543203831147745</v>
       </c>
       <c r="E75">
-        <v>0.5333731179900938</v>
+        <v>0.1229493585709566</v>
       </c>
     </row>
     <row r="76">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>59.15888484959917</v>
+        <v>118.5696946009255</v>
       </c>
       <c r="C76">
-        <v>113.5574441217046</v>
+        <v>91.50328188078207</v>
       </c>
       <c r="D76">
-        <v>0.5209599890800283</v>
+        <v>1.295797179771188</v>
       </c>
       <c r="E76">
-        <v>0.6024233952824923</v>
+        <v>0.1952041820574133</v>
       </c>
     </row>
     <row r="77">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>-123.2518124904907</v>
+        <v>-246.3841670921221</v>
       </c>
       <c r="C77">
-        <v>113.5574441217047</v>
+        <v>91.50328188078809</v>
       </c>
       <c r="D77">
-        <v>-1.085369730216859</v>
+        <v>-2.692626559702146</v>
       </c>
       <c r="E77">
-        <v>0.277823145219951</v>
+        <v>0.007151991238969108</v>
       </c>
     </row>
     <row r="78">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>-109.5497055863768</v>
+        <v>-218.869032596677</v>
       </c>
       <c r="C78">
-        <v>113.5574441217168</v>
+        <v>91.5032818807871</v>
       </c>
       <c r="D78">
-        <v>-0.964707390463594</v>
+        <v>-2.39192549270337</v>
       </c>
       <c r="E78">
-        <v>0.3347495363885354</v>
+        <v>0.01685780953321251</v>
       </c>
     </row>
     <row r="79">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B79">
-        <v>-97.23558168706403</v>
+        <v>-194.3108068461399</v>
       </c>
       <c r="C79">
-        <v>113.5574441217042</v>
+        <v>91.50328188079041</v>
       </c>
       <c r="D79">
-        <v>-0.8562677897439523</v>
+        <v>-2.123539209219688</v>
       </c>
       <c r="E79">
-        <v>0.3919008111137738</v>
+        <v>0.03383876274375912</v>
       </c>
     </row>
     <row r="80">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B80">
-        <v>-125.3147410706079</v>
+        <v>-250.4513962424881</v>
       </c>
       <c r="C80">
-        <v>113.5574441217189</v>
+        <v>91.50328188077906</v>
       </c>
       <c r="D80">
-        <v>-1.103536118127902</v>
+        <v>-2.737075557233071</v>
       </c>
       <c r="E80">
-        <v>0.2698606003290188</v>
+        <v>0.006257077940355479</v>
       </c>
     </row>
     <row r="81">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>-76.61762712554186</v>
+        <v>-152.9904651031309</v>
       </c>
       <c r="C81">
-        <v>113.5574441217077</v>
+        <v>91.50328188079011</v>
       </c>
       <c r="D81">
-        <v>-0.674703694840342</v>
+        <v>-1.671966971659507</v>
       </c>
       <c r="E81">
-        <v>0.4999029135136001</v>
+        <v>0.09469697675569234</v>
       </c>
     </row>
     <row r="82">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>-130.0259719630458</v>
+        <v>-259.9035921139142</v>
       </c>
       <c r="C82">
-        <v>113.55744412171</v>
+        <v>91.50328188078122</v>
       </c>
       <c r="D82">
-        <v>-1.145023762807527</v>
+        <v>-2.840374539271063</v>
       </c>
       <c r="E82">
-        <v>0.2522676141969678</v>
+        <v>0.004554494201453158</v>
       </c>
     </row>
     <row r="83">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B83">
-        <v>-120.7988585587068</v>
+        <v>-241.4023411978898</v>
       </c>
       <c r="C83">
-        <v>113.5311462210604</v>
+        <v>91.48209133503597</v>
       </c>
       <c r="D83">
-        <v>-1.064015141038875</v>
+        <v>-2.638793425849864</v>
       </c>
       <c r="E83">
-        <v>0.2873858749914904</v>
+        <v>0.008388753576527078</v>
       </c>
     </row>
     <row r="84">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B84">
-        <v>-36.98468571573684</v>
+        <v>-73.63734424478224</v>
       </c>
       <c r="C84">
-        <v>113.9511843433065</v>
+        <v>91.82055322097789</v>
       </c>
       <c r="D84">
-        <v>-0.3245660493032806</v>
+        <v>-0.8019701653023651</v>
       </c>
       <c r="E84">
-        <v>0.7455264470860912</v>
+        <v>0.4226714113928647</v>
       </c>
     </row>
     <row r="85">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B85">
-        <v>-137.930222832427</v>
+        <v>-275.8080609669848</v>
       </c>
       <c r="C85">
-        <v>113.9511843432973</v>
+        <v>91.82055322097935</v>
       </c>
       <c r="D85">
-        <v>-1.210432551687122</v>
+        <v>-3.003772590034532</v>
       </c>
       <c r="E85">
-        <v>0.2261842625897287</v>
+        <v>0.002701697818782924</v>
       </c>
     </row>
     <row r="86">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>-122.3420019852543</v>
+        <v>-244.4451170332581</v>
       </c>
       <c r="C86">
-        <v>113.5311462210753</v>
+        <v>91.48209133503664</v>
       </c>
       <c r="D86">
-        <v>-1.077607388434377</v>
+        <v>-2.672054316489355</v>
       </c>
       <c r="E86">
-        <v>0.2812737915605859</v>
+        <v>0.007603843856669136</v>
       </c>
     </row>
     <row r="87">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B87">
-        <v>-143.0308785591667</v>
+        <v>-286.0372031181102</v>
       </c>
       <c r="C87">
-        <v>113.9511843433056</v>
+        <v>91.82055322097963</v>
       </c>
       <c r="D87">
-        <v>-1.255194313103859</v>
+        <v>-3.115176211471082</v>
       </c>
       <c r="E87">
-        <v>0.2094813344065287</v>
+        <v>0.001866059754648689</v>
       </c>
     </row>
     <row r="88">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B88">
-        <v>-49.13534581977744</v>
+        <v>-97.94915563600792</v>
       </c>
       <c r="C88">
-        <v>113.9511843433015</v>
+        <v>91.82055322098154</v>
       </c>
       <c r="D88">
-        <v>-0.4311964469956456</v>
+        <v>-1.066745431170262</v>
       </c>
       <c r="E88">
-        <v>0.6663487038122484</v>
+        <v>0.2862235553608279</v>
       </c>
     </row>
     <row r="89">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>-127.7645048587065</v>
+        <v>-255.2226097009389</v>
       </c>
       <c r="C89">
-        <v>113.9511843432917</v>
+        <v>91.8205532209841</v>
       </c>
       <c r="D89">
-        <v>-1.121221386113903</v>
+        <v>-2.779580396196218</v>
       </c>
       <c r="E89">
-        <v>0.2622607438026093</v>
+        <v>0.005497011857355072</v>
       </c>
     </row>
     <row r="90">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B90">
-        <v>-119.2824486301644</v>
+        <v>-238.225189632861</v>
       </c>
       <c r="C90">
-        <v>113.9511843433226</v>
+        <v>91.82055322097713</v>
       </c>
       <c r="D90">
-        <v>-1.046785510107374</v>
+        <v>-2.594464760624384</v>
       </c>
       <c r="E90">
-        <v>0.2952615740929104</v>
+        <v>0.009547343354257772</v>
       </c>
     </row>
     <row r="91">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B91">
-        <v>125.5285259907223</v>
+        <v>251.3587990636111</v>
       </c>
       <c r="C91">
-        <v>113.9511843433127</v>
+        <v>91.82055322098245</v>
       </c>
       <c r="D91">
-        <v>1.101599133998725</v>
+        <v>2.737500377052528</v>
       </c>
       <c r="E91">
-        <v>0.2707020672827877</v>
+        <v>0.006249034823320572</v>
       </c>
     </row>
     <row r="92">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B92">
-        <v>-106.0246038598772</v>
+        <v>-211.7702111890342</v>
       </c>
       <c r="C92">
-        <v>113.9511843432973</v>
+        <v>91.82055322097516</v>
       </c>
       <c r="D92">
-        <v>-0.9304388056245213</v>
+        <v>-2.306348674238419</v>
       </c>
       <c r="E92">
-        <v>0.3521999151523537</v>
+        <v>0.02119927604821192</v>
       </c>
     </row>
     <row r="93">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B93">
-        <v>8.326108323740073</v>
+        <v>16.96379612718653</v>
       </c>
       <c r="C93">
-        <v>113.9511843433116</v>
+        <v>91.82055322098026</v>
       </c>
       <c r="D93">
-        <v>0.07306732590558435</v>
+        <v>0.1847494436932933</v>
       </c>
       <c r="E93">
-        <v>0.9417561846372168</v>
+        <v>0.8534454583667611</v>
       </c>
     </row>
     <row r="94">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B94">
-        <v>-120.6838484147627</v>
+        <v>-241.0763216967559</v>
       </c>
       <c r="C94">
-        <v>113.9511843433288</v>
+        <v>91.82055322098394</v>
       </c>
       <c r="D94">
-        <v>-1.059083756875653</v>
+        <v>-2.625515892030829</v>
       </c>
       <c r="E94">
-        <v>0.2896253943129177</v>
+        <v>0.00872182261414613</v>
       </c>
     </row>
     <row r="95">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B95">
-        <v>273.0947919937303</v>
+        <v>546.5570725088974</v>
       </c>
       <c r="C95">
-        <v>117.3468987211709</v>
+        <v>94.5567807955601</v>
       </c>
       <c r="D95">
-        <v>2.327243369615021</v>
+        <v>5.780199663211894</v>
       </c>
       <c r="E95">
-        <v>0.02000182857708012</v>
+        <v>8.713537169511189E-09</v>
       </c>
     </row>
     <row r="96">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B96">
-        <v>4.739995527410259</v>
+        <v>9.771516439133023</v>
       </c>
       <c r="C96">
-        <v>117.346898721167</v>
+        <v>94.55678079555638</v>
       </c>
       <c r="D96">
-        <v>0.0403930191514747</v>
+        <v>0.103340197888719</v>
       </c>
       <c r="E96">
-        <v>0.9677818054782406</v>
+        <v>0.917703977430011</v>
       </c>
     </row>
     <row r="97">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B97">
-        <v>-124.9617614062018</v>
+        <v>-249.6163399206236</v>
       </c>
       <c r="C97">
-        <v>113.5574441216996</v>
+        <v>91.50328188079118</v>
       </c>
       <c r="D97">
-        <v>-1.100427738337262</v>
+        <v>-2.727949585959323</v>
       </c>
       <c r="E97">
-        <v>0.2712118184713396</v>
+        <v>0.006432127460767034</v>
       </c>
     </row>
     <row r="98">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B98">
-        <v>-117.7003277435947</v>
+        <v>-235.0952766017935</v>
       </c>
       <c r="C98">
-        <v>113.9511843432954</v>
+        <v>91.82055322098437</v>
       </c>
       <c r="D98">
-        <v>-1.032901311398435</v>
+        <v>-2.560377479277326</v>
       </c>
       <c r="E98">
-        <v>0.3017123430725272</v>
+        <v>0.01053325024274538</v>
       </c>
     </row>
     <row r="99">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B99">
-        <v>-133.6039018117169</v>
+        <v>-266.8882062659864</v>
       </c>
       <c r="C99">
-        <v>113.9511843433034</v>
+        <v>91.82055322097732</v>
       </c>
       <c r="D99">
-        <v>-1.172466109779126</v>
+        <v>-2.906628166611973</v>
       </c>
       <c r="E99">
-        <v>0.2410795834107015</v>
+        <v>0.003696178969070652</v>
       </c>
     </row>
     <row r="100">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B100">
-        <v>-94.24822601254311</v>
+        <v>-188.1831182783127</v>
       </c>
       <c r="C100">
-        <v>113.9511843433111</v>
+        <v>91.82055322098419</v>
       </c>
       <c r="D100">
-        <v>-0.8270929921061013</v>
+        <v>-2.049466178072496</v>
       </c>
       <c r="E100">
-        <v>0.4082335448242356</v>
+        <v>0.0405548294049808</v>
       </c>
     </row>
     <row r="101">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B101">
-        <v>-65.57905116819164</v>
+        <v>-130.9352021111046</v>
       </c>
       <c r="C101">
-        <v>113.5311462210569</v>
+        <v>91.48209133503484</v>
       </c>
       <c r="D101">
-        <v>-0.5776304860033954</v>
+        <v>-1.4312659472506</v>
       </c>
       <c r="E101">
-        <v>0.5635460347591853</v>
+        <v>0.1525199511302082</v>
       </c>
     </row>
     <row r="102">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B102">
-        <v>-60.30369946937187</v>
+        <v>-120.2600482732816</v>
       </c>
       <c r="C102">
-        <v>113.5574441217034</v>
+        <v>91.50328188078758</v>
       </c>
       <c r="D102">
-        <v>-0.5310413591621729</v>
+        <v>-1.314270327811399</v>
       </c>
       <c r="E102">
-        <v>0.5954195145835537</v>
+        <v>0.1889153183544634</v>
       </c>
     </row>
     <row r="103">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B103">
-        <v>-122.4191824666396</v>
+        <v>-244.5556033999752</v>
       </c>
       <c r="C103">
-        <v>113.557444121687</v>
+        <v>91.50328188078271</v>
       </c>
       <c r="D103">
-        <v>-1.078037493829612</v>
+        <v>-2.672642973818146</v>
       </c>
       <c r="E103">
-        <v>0.2810818357229848</v>
+        <v>0.007590566528608629</v>
       </c>
     </row>
     <row r="104">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B104">
-        <v>-90.57044808094906</v>
+        <v>-180.8568308985376</v>
       </c>
       <c r="C104">
-        <v>113.557444121693</v>
+        <v>91.50328188078632</v>
       </c>
       <c r="D104">
-        <v>-0.7975738515556051</v>
+        <v>-1.976506494424584</v>
       </c>
       <c r="E104">
-        <v>0.4251650312099393</v>
+        <v>0.04824315476908676</v>
       </c>
     </row>
     <row r="105">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B105">
-        <v>-130.6649351378897</v>
+        <v>-261.1650599850618</v>
       </c>
       <c r="C105">
-        <v>113.5574441217092</v>
+        <v>91.50328188078784</v>
       </c>
       <c r="D105">
-        <v>-1.150650546500897</v>
+        <v>-2.8541605789103</v>
       </c>
       <c r="E105">
-        <v>0.2499446044284814</v>
+        <v>0.004362276233060853</v>
       </c>
     </row>
     <row r="106">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B106">
-        <v>-100.6541929253189</v>
+        <v>-201.0768621889057</v>
       </c>
       <c r="C106">
-        <v>113.5574441216973</v>
+        <v>91.50328188078485</v>
       </c>
       <c r="D106">
-        <v>-0.886372476096325</v>
+        <v>-2.197482517084785</v>
       </c>
       <c r="E106">
-        <v>0.3754699716169475</v>
+        <v>0.02810739793094556</v>
       </c>
     </row>
     <row r="107">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B107">
-        <v>-123.3725002873031</v>
+        <v>-246.4656129525255</v>
       </c>
       <c r="C107">
-        <v>113.5574441217169</v>
+        <v>91.50328188079074</v>
       </c>
       <c r="D107">
-        <v>-1.086432520928051</v>
+        <v>-2.69351664646977</v>
       </c>
       <c r="E107">
-        <v>0.2773529495714109</v>
+        <v>0.007132997273223856</v>
       </c>
     </row>
     <row r="108">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B108">
-        <v>-129.4326377564058</v>
+        <v>-258.5690326725509</v>
       </c>
       <c r="C108">
-        <v>113.9511843433184</v>
+        <v>91.82055322098142</v>
       </c>
       <c r="D108">
-        <v>-1.135860399365785</v>
+        <v>-2.816025645698971</v>
       </c>
       <c r="E108">
-        <v>0.2560828403323589</v>
+        <v>0.004912834233805651</v>
       </c>
     </row>
     <row r="109">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B109">
-        <v>-135.4234404033207</v>
+        <v>-270.5629599826456</v>
       </c>
       <c r="C109">
-        <v>113.5574441217162</v>
+        <v>91.50328188078011</v>
       </c>
       <c r="D109">
-        <v>-1.192554494782107</v>
+        <v>-2.95686618470322</v>
       </c>
       <c r="E109">
-        <v>0.2331144228902793</v>
+        <v>0.003146504304685038</v>
       </c>
     </row>
     <row r="110">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B110">
-        <v>-136.1198167826056</v>
+        <v>-271.9134590897016</v>
       </c>
       <c r="C110">
-        <v>113.9511843433059</v>
+        <v>91.82055322098084</v>
       </c>
       <c r="D110">
-        <v>-1.19454499369231</v>
+        <v>-2.961357229413532</v>
       </c>
       <c r="E110">
-        <v>0.2323354662185062</v>
+        <v>0.003101191916228071</v>
       </c>
     </row>
     <row r="111">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B111">
-        <v>-130.8815719024877</v>
+        <v>-261.4913002853892</v>
       </c>
       <c r="C111">
-        <v>113.5574441217129</v>
+        <v>91.5032818807892</v>
       </c>
       <c r="D111">
-        <v>-1.152558274930937</v>
+        <v>-2.857725918793394</v>
       </c>
       <c r="E111">
-        <v>0.2491604053973409</v>
+        <v>0.004313777657335117</v>
       </c>
     </row>
     <row r="112">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B112">
-        <v>-138.060700329409</v>
+        <v>-275.8605182081712</v>
       </c>
       <c r="C112">
-        <v>113.5574441217031</v>
+        <v>91.5032818807879</v>
       </c>
       <c r="D112">
-        <v>-1.215778511019014</v>
+        <v>-3.014760919368632</v>
       </c>
       <c r="E112">
-        <v>0.2241408383699865</v>
+        <v>0.002606179704532286</v>
       </c>
     </row>
     <row r="113">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B113">
-        <v>-53.0322447791204</v>
+        <v>-105.751416731201</v>
       </c>
       <c r="C113">
-        <v>113.5311462210698</v>
+        <v>91.48209133503586</v>
       </c>
       <c r="D113">
-        <v>-0.4671162631957849</v>
+        <v>-1.155979440215315</v>
       </c>
       <c r="E113">
-        <v>0.6404420659215981</v>
+        <v>0.2478362137134765</v>
       </c>
     </row>
     <row r="114">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B114">
-        <v>-129.2832946022158</v>
+        <v>-258.2845558274431</v>
       </c>
       <c r="C114">
-        <v>113.5311462210422</v>
+        <v>91.48209133503786</v>
       </c>
       <c r="D114">
-        <v>-1.138747373786789</v>
+        <v>-2.823334622746206</v>
       </c>
       <c r="E114">
-        <v>0.2548765274912066</v>
+        <v>0.004802676418422968</v>
       </c>
     </row>
     <row r="115">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B115">
-        <v>-99.75386764371771</v>
+        <v>-199.3379024546961</v>
       </c>
       <c r="C115">
-        <v>113.5574441216915</v>
+        <v>91.50328188078547</v>
       </c>
       <c r="D115">
-        <v>-0.8784441074318166</v>
+        <v>-2.178478174306385</v>
       </c>
       <c r="E115">
-        <v>0.379755361780191</v>
+        <v>0.02949411513439243</v>
       </c>
     </row>
     <row r="116">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B116">
-        <v>299.8713205218528</v>
+        <v>600.0172491235206</v>
       </c>
       <c r="C116">
-        <v>113.5574441217048</v>
+        <v>91.50328188078734</v>
       </c>
       <c r="D116">
-        <v>2.640701565988636</v>
+        <v>6.557330368819311</v>
       </c>
       <c r="E116">
-        <v>0.008305519158613777</v>
+        <v>7.054778378222889E-11</v>
       </c>
     </row>
     <row r="117">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B117">
-        <v>-145.622764057842</v>
+        <v>-291.2991378758049</v>
       </c>
       <c r="C117">
-        <v>113.9511843433197</v>
+        <v>91.82055322098334</v>
       </c>
       <c r="D117">
-        <v>-1.27793989063861</v>
+        <v>-3.172482931732497</v>
       </c>
       <c r="E117">
-        <v>0.20134455525402</v>
+        <v>0.001535783922016155</v>
       </c>
     </row>
     <row r="118">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B118">
-        <v>-112.9662177367807</v>
+        <v>-225.7654180066669</v>
       </c>
       <c r="C118">
-        <v>113.5574441217097</v>
+        <v>91.50328188078414</v>
       </c>
       <c r="D118">
-        <v>-0.994793592005335</v>
+        <v>-2.467293121800892</v>
       </c>
       <c r="E118">
-        <v>0.3198966566874056</v>
+        <v>0.01370227034781667</v>
       </c>
     </row>
     <row r="119">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B119">
-        <v>-111.0573844845187</v>
+        <v>-221.8908333385222</v>
       </c>
       <c r="C119">
-        <v>113.5311462210702</v>
+        <v>91.48209133503133</v>
       </c>
       <c r="D119">
-        <v>-0.9782107217367949</v>
+        <v>-2.425511158527192</v>
       </c>
       <c r="E119">
-        <v>0.3280290947866918</v>
+        <v>0.01538029724054473</v>
       </c>
     </row>
     <row r="120">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B120">
-        <v>-121.7197164970724</v>
+        <v>-243.3379581369954</v>
       </c>
       <c r="C120">
-        <v>113.5311462210511</v>
+        <v>91.48209133503556</v>
       </c>
       <c r="D120">
-        <v>-1.07212620103454</v>
+        <v>-2.659951850530142</v>
       </c>
       <c r="E120">
-        <v>0.2837278377490259</v>
+        <v>0.007881476194344197</v>
       </c>
     </row>
     <row r="121">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B121">
-        <v>-103.5075639443334</v>
+        <v>-206.7819369520959</v>
       </c>
       <c r="C121">
-        <v>113.5311462210568</v>
+        <v>91.48209133503219</v>
       </c>
       <c r="D121">
-        <v>-0.9117107277574167</v>
+        <v>-2.260354282837769</v>
       </c>
       <c r="E121">
-        <v>0.3619757917006241</v>
+        <v>0.02391304421990588</v>
       </c>
     </row>
     <row r="122">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B122">
-        <v>-124.1763421262272</v>
+        <v>-248.2109947679768</v>
       </c>
       <c r="C122">
-        <v>113.55744412171</v>
+        <v>91.50328188079064</v>
       </c>
       <c r="D122">
-        <v>-1.093511245226125</v>
+        <v>-2.712591173411059</v>
       </c>
       <c r="E122">
-        <v>0.2742350455831783</v>
+        <v>0.00673670070098629</v>
       </c>
     </row>
     <row r="123">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B123">
-        <v>-109.8310703537741</v>
+        <v>-219.433771195157</v>
       </c>
       <c r="C123">
-        <v>113.5574441217028</v>
+        <v>91.50328188078335</v>
       </c>
       <c r="D123">
-        <v>-0.9671851211802989</v>
+        <v>-2.398097277877423</v>
       </c>
       <c r="E123">
-        <v>0.333509796845329</v>
+        <v>0.01657729494788777</v>
       </c>
     </row>
     <row r="124">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B124">
-        <v>92.53247371583664</v>
+        <v>185.3196158252311</v>
       </c>
       <c r="C124">
-        <v>113.5574441217115</v>
+        <v>91.50328188078852</v>
       </c>
       <c r="D124">
-        <v>0.8148516764489683</v>
+        <v>2.025278350853771</v>
       </c>
       <c r="E124">
-        <v>0.4152055828887596</v>
+        <v>0.0429796131270835</v>
       </c>
     </row>
     <row r="125">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B125">
-        <v>-117.9293118573345</v>
+        <v>-235.6854726204301</v>
       </c>
       <c r="C125">
-        <v>113.5574441216989</v>
+        <v>91.50328188078349</v>
       </c>
       <c r="D125">
-        <v>-1.038499173431116</v>
+        <v>-2.575705130745984</v>
       </c>
       <c r="E125">
-        <v>0.2991003026162957</v>
+        <v>0.01007923135885076</v>
       </c>
     </row>
     <row r="126">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B126">
-        <v>116.6754399376513</v>
+        <v>233.6767946810196</v>
       </c>
       <c r="C126">
-        <v>113.9511843433216</v>
+        <v>91.82055322097899</v>
       </c>
       <c r="D126">
-        <v>1.02390721614724</v>
+        <v>2.544929065267596</v>
       </c>
       <c r="E126">
-        <v>0.3059408334435018</v>
+        <v>0.01100917968547492</v>
       </c>
     </row>
     <row r="127">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B127">
-        <v>-127.3628897128169</v>
+        <v>-254.5734282582459</v>
       </c>
       <c r="C127">
-        <v>113.5574441216956</v>
+        <v>91.5032818807842</v>
       </c>
       <c r="D127">
-        <v>-1.121572352194951</v>
+        <v>-2.782123471701474</v>
       </c>
       <c r="E127">
-        <v>0.2621114356551975</v>
+        <v>0.005454298692989515</v>
       </c>
     </row>
     <row r="128">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B128">
-        <v>-96.7582470444094</v>
+        <v>-193.3013534319583</v>
       </c>
       <c r="C128">
-        <v>113.5574441217018</v>
+        <v>91.50328188078204</v>
       </c>
       <c r="D128">
-        <v>-0.8520643256175408</v>
+        <v>-2.112507327155841</v>
       </c>
       <c r="E128">
-        <v>0.3942292488264231</v>
+        <v>0.03477428487031835</v>
       </c>
     </row>
     <row r="129">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B129">
-        <v>-134.6196774267958</v>
+        <v>-269.7532319041538</v>
       </c>
       <c r="C129">
-        <v>113.5574441217094</v>
+        <v>91.50328188078777</v>
       </c>
       <c r="D129">
-        <v>-1.185476464955588</v>
+        <v>-2.948017014904378</v>
       </c>
       <c r="E129">
-        <v>0.2358993236689848</v>
+        <v>0.003237560059259491</v>
       </c>
     </row>
     <row r="130">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B130">
-        <v>-94.21718686849842</v>
+        <v>-188.4532235490994</v>
       </c>
       <c r="C130">
-        <v>113.5574441216968</v>
+        <v>91.50328188078196</v>
       </c>
       <c r="D130">
-        <v>-0.8296874555183554</v>
+        <v>-2.059524201488553</v>
       </c>
       <c r="E130">
-        <v>0.4067648786736144</v>
+        <v>0.03958124699339347</v>
       </c>
     </row>
     <row r="131">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B131">
-        <v>-143.2692376359618</v>
+        <v>-286.8098029973402</v>
       </c>
       <c r="C131">
-        <v>113.531146221054</v>
+        <v>91.48209133503272</v>
       </c>
       <c r="D131">
-        <v>-1.261937736072931</v>
+        <v>-3.135146986823502</v>
       </c>
       <c r="E131">
-        <v>0.2070445487580389</v>
+        <v>0.001744188888480262</v>
       </c>
     </row>
     <row r="132">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B132">
-        <v>-133.7447033155564</v>
+        <v>-267.3630225384161</v>
       </c>
       <c r="C132">
-        <v>113.5574441217089</v>
+        <v>91.50328188078637</v>
       </c>
       <c r="D132">
-        <v>-1.177771341632269</v>
+        <v>-2.921895445091749</v>
       </c>
       <c r="E132">
-        <v>0.2389576344705547</v>
+        <v>0.003520536238013804</v>
       </c>
     </row>
     <row r="133">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B133">
-        <v>-117.405953208676</v>
+        <v>-234.5571360349505</v>
       </c>
       <c r="C133">
-        <v>113.5311462210581</v>
+        <v>91.48209133503099</v>
       </c>
       <c r="D133">
-        <v>-1.03412990282044</v>
+        <v>-2.563967795357255</v>
       </c>
       <c r="E133">
-        <v>0.301137768052567</v>
+        <v>0.01042529914228106</v>
       </c>
     </row>
     <row r="134">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B134">
-        <v>-73.92326669087738</v>
+        <v>-147.7439479738567</v>
       </c>
       <c r="C134">
-        <v>113.5574441217017</v>
+        <v>91.50328188078859</v>
       </c>
       <c r="D134">
-        <v>-0.6509768449143009</v>
+        <v>-1.614630043175271</v>
       </c>
       <c r="E134">
-        <v>0.5150987149277411</v>
+        <v>0.1065583741004411</v>
       </c>
     </row>
     <row r="135">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B135">
-        <v>-12.19674844968644</v>
+        <v>-24.1124473747771</v>
       </c>
       <c r="C135">
-        <v>113.9511843433152</v>
+        <v>91.82055322098051</v>
       </c>
       <c r="D135">
-        <v>-0.1070348546175681</v>
+        <v>-0.2626040306765167</v>
       </c>
       <c r="E135">
-        <v>0.9147666802699395</v>
+        <v>0.79288451988617</v>
       </c>
     </row>
     <row r="136">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B136">
-        <v>847.4742553773056</v>
+        <v>1695.249321304989</v>
       </c>
       <c r="C136">
-        <v>113.5574441216936</v>
+        <v>91.50328188079038</v>
       </c>
       <c r="D136">
-        <v>7.462956408820818</v>
+        <v>18.52665048138431</v>
       </c>
       <c r="E136">
-        <v>1.031646574447357E-13</v>
+        <v>1.593449960466739E-70</v>
       </c>
     </row>
     <row r="137">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B137">
-        <v>3056.569656591996</v>
+        <v>6113.419184775074</v>
       </c>
       <c r="C137">
-        <v>113.5574441217074</v>
+        <v>91.50328188079047</v>
       </c>
       <c r="D137">
-        <v>26.91650626898628</v>
+        <v>66.81092807949307</v>
       </c>
       <c r="E137">
-        <v>7.618019085528949E-147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B138">
-        <v>678.4559561488539</v>
+        <v>1357.21915147472</v>
       </c>
       <c r="C138">
-        <v>113.5574441217064</v>
+        <v>91.50328188078521</v>
       </c>
       <c r="D138">
-        <v>5.974561697793335</v>
+        <v>14.83246418683615</v>
       </c>
       <c r="E138">
-        <v>2.507526353910299E-09</v>
+        <v>3.721577683578827E-47</v>
       </c>
     </row>
     <row r="139">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B139">
-        <v>-112.9502692797122</v>
+        <v>-225.663575368385</v>
       </c>
       <c r="C139">
-        <v>113.5574441217036</v>
+        <v>91.50328188078932</v>
       </c>
       <c r="D139">
-        <v>-0.9946531480460175</v>
+        <v>-2.466180127422971</v>
       </c>
       <c r="E139">
-        <v>0.319964973458373</v>
+        <v>0.01374478218786654</v>
       </c>
     </row>
     <row r="140">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B140">
-        <v>-77.41938551618027</v>
+        <v>-154.6015839610515</v>
       </c>
       <c r="C140">
-        <v>113.5574441217062</v>
+        <v>91.50328188078696</v>
       </c>
       <c r="D140">
-        <v>-0.6817640720515455</v>
+        <v>-1.689574196502271</v>
       </c>
       <c r="E140">
-        <v>0.4954274991087467</v>
+        <v>0.09127498486796562</v>
       </c>
     </row>
     <row r="141">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B141">
-        <v>-99.00409894312813</v>
+        <v>-197.7437928750441</v>
       </c>
       <c r="C141">
-        <v>113.5574441216919</v>
+        <v>91.50328188078436</v>
       </c>
       <c r="D141">
-        <v>-0.8718415574502721</v>
+        <v>-2.16105683654796</v>
       </c>
       <c r="E141">
-        <v>0.3833469893560268</v>
+        <v>0.03081666568726254</v>
       </c>
     </row>
     <row r="142">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B142">
-        <v>-75.95515598825331</v>
+        <v>-151.6364666838193</v>
       </c>
       <c r="C142">
-        <v>113.9511843433067</v>
+        <v>91.82055322098192</v>
       </c>
       <c r="D142">
-        <v>-0.6665587235971083</v>
+        <v>-1.651443618716608</v>
       </c>
       <c r="E142">
-        <v>0.5050923700192421</v>
+        <v>0.09881476654566831</v>
       </c>
     </row>
     <row r="143">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B143">
-        <v>54.2008211664501</v>
+        <v>108.7018951130076</v>
       </c>
       <c r="C143">
-        <v>113.9511843433066</v>
+        <v>91.82055322097807</v>
       </c>
       <c r="D143">
-        <v>0.4756494763859277</v>
+        <v>1.18385145046341</v>
       </c>
       <c r="E143">
-        <v>0.6343500171668776</v>
+        <v>0.236621293690079</v>
       </c>
     </row>
     <row r="144">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B144">
-        <v>-52.5903212314289</v>
+        <v>-104.8743998144254</v>
       </c>
       <c r="C144">
-        <v>113.9511843432992</v>
+        <v>91.82055322097843</v>
       </c>
       <c r="D144">
-        <v>-0.4615162320120407</v>
+        <v>-1.142166934695232</v>
       </c>
       <c r="E144">
-        <v>0.644453299082393</v>
+        <v>0.2535298499107954</v>
       </c>
     </row>
     <row r="145">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B145">
-        <v>-84.85043013899696</v>
+        <v>-169.431647562469</v>
       </c>
       <c r="C145">
-        <v>113.9511843432997</v>
+        <v>91.82055322098219</v>
       </c>
       <c r="D145">
-        <v>-0.7446208710158625</v>
+        <v>-1.845247513971106</v>
       </c>
       <c r="E145">
-        <v>0.4565445598213599</v>
+        <v>0.06515846541258226</v>
       </c>
     </row>
     <row r="146">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B146">
-        <v>-115.7163046453943</v>
+        <v>-231.3551731414923</v>
       </c>
       <c r="C146">
-        <v>113.5574441217089</v>
+        <v>91.50328188079298</v>
       </c>
       <c r="D146">
-        <v>-1.019011175712722</v>
+        <v>-2.528381150775478</v>
       </c>
       <c r="E146">
-        <v>0.3082591042062077</v>
+        <v>0.01154010549967413</v>
       </c>
     </row>
     <row r="147">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B147">
-        <v>-122.3111009368603</v>
+        <v>-244.511468743996</v>
       </c>
       <c r="C147">
-        <v>113.9511843432974</v>
+        <v>91.82055322098266</v>
       </c>
       <c r="D147">
-        <v>-1.073364016721206</v>
+        <v>-2.662927418391122</v>
       </c>
       <c r="E147">
-        <v>0.2831723769819168</v>
+        <v>0.007812386532501531</v>
       </c>
     </row>
     <row r="148">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B148">
-        <v>-115.879338774145</v>
+        <v>-231.6026080470888</v>
       </c>
       <c r="C148">
-        <v>113.5574441216986</v>
+        <v>91.50328188078599</v>
       </c>
       <c r="D148">
-        <v>-1.020446873125799</v>
+        <v>-2.531085260404426</v>
       </c>
       <c r="E148">
-        <v>0.3075781013505651</v>
+        <v>0.01145182147998136</v>
       </c>
     </row>
     <row r="149">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B149">
-        <v>-137.1626991061236</v>
+        <v>-274.4951850967703</v>
       </c>
       <c r="C149">
-        <v>113.557444121691</v>
+        <v>91.50328188078878</v>
       </c>
       <c r="D149">
-        <v>-1.207870608281185</v>
+        <v>-2.999839781204623</v>
       </c>
       <c r="E149">
-        <v>0.2271682322587255</v>
+        <v>0.002736655169725663</v>
       </c>
     </row>
     <row r="150">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B150">
-        <v>-128.546166856214</v>
+        <v>-256.9633139503297</v>
       </c>
       <c r="C150">
-        <v>113.557444121703</v>
+        <v>91.503281880789</v>
       </c>
       <c r="D150">
-        <v>-1.131992427713036</v>
+        <v>-2.808241504223892</v>
       </c>
       <c r="E150">
-        <v>0.2577052702686107</v>
+        <v>0.005032664190508077</v>
       </c>
     </row>
     <row r="151">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B151">
-        <v>-130.3329320397316</v>
+        <v>-260.6221884632091</v>
       </c>
       <c r="C151">
-        <v>113.5311462210634</v>
+        <v>91.48209133502947</v>
       </c>
       <c r="D151">
-        <v>-1.147992743647214</v>
+        <v>-2.848887521698075</v>
       </c>
       <c r="E151">
-        <v>0.251040005095391</v>
+        <v>0.004434911703125823</v>
       </c>
     </row>
     <row r="152">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B152">
-        <v>-95.29747246855072</v>
+        <v>-190.3594761535188</v>
       </c>
       <c r="C152">
-        <v>113.5311462210483</v>
+        <v>91.48209133503576</v>
       </c>
       <c r="D152">
-        <v>-0.8393949646470047</v>
+        <v>-2.080838701602955</v>
       </c>
       <c r="E152">
-        <v>0.4012977214204277</v>
+        <v>0.03758354402523315</v>
       </c>
     </row>
     <row r="153">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B153">
-        <v>-120.9143392571396</v>
+        <v>-241.6685146619309</v>
       </c>
       <c r="C153">
-        <v>113.5574441216981</v>
+        <v>91.50328188079061</v>
       </c>
       <c r="D153">
-        <v>-1.064785670304073</v>
+        <v>-2.641091223118902</v>
       </c>
       <c r="E153">
-        <v>0.2870370087260657</v>
+        <v>0.008332282912791181</v>
       </c>
     </row>
     <row r="154">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B154">
-        <v>-128.3696868206038</v>
+        <v>-256.611732061262</v>
       </c>
       <c r="C154">
-        <v>113.5574441216954</v>
+        <v>91.50328188078731</v>
       </c>
       <c r="D154">
-        <v>-1.130438324087628</v>
+        <v>-2.804399217020237</v>
       </c>
       <c r="E154">
-        <v>0.2583591471144607</v>
+        <v>0.005092782292843306</v>
       </c>
     </row>
     <row r="155">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B155">
-        <v>-137.2937715263316</v>
+        <v>-274.5244022261343</v>
       </c>
       <c r="C155">
-        <v>113.9511843433118</v>
+        <v>91.82055322098279</v>
       </c>
       <c r="D155">
-        <v>-1.204847253826633</v>
+        <v>-2.989792509368155</v>
       </c>
       <c r="E155">
-        <v>0.228333339504848</v>
+        <v>0.002827847789648152</v>
       </c>
     </row>
     <row r="156">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B156">
-        <v>-87.03596602598684</v>
+        <v>-173.987462902228</v>
       </c>
       <c r="C156">
-        <v>113.5574441216954</v>
+        <v>91.50328188078477</v>
       </c>
       <c r="D156">
-        <v>-0.7664487933764479</v>
+        <v>-1.90143412701752</v>
       </c>
       <c r="E156">
-        <v>0.4434544032830064</v>
+        <v>0.05739768382257344</v>
       </c>
     </row>
     <row r="157">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B157">
-        <v>-114.9400206698799</v>
+        <v>-229.7771292104972</v>
       </c>
       <c r="C157">
-        <v>113.5574441216927</v>
+        <v>91.50328188078603</v>
       </c>
       <c r="D157">
-        <v>-1.012175129150543</v>
+        <v>-2.511135387579428</v>
       </c>
       <c r="E157">
-        <v>0.3115153632407694</v>
+        <v>0.01211750233092287</v>
       </c>
     </row>
     <row r="158">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B158">
-        <v>-130.9464957656899</v>
+        <v>-261.69654849792</v>
       </c>
       <c r="C158">
-        <v>113.5574441216914</v>
+        <v>91.50328188079091</v>
       </c>
       <c r="D158">
-        <v>-1.153130001987046</v>
+        <v>-2.859968988203662</v>
       </c>
       <c r="E158">
-        <v>0.2489257242730505</v>
+        <v>0.004283516923767137</v>
       </c>
     </row>
     <row r="159">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B159">
-        <v>268.7528246969514</v>
+        <v>537.7601356899694</v>
       </c>
       <c r="C159">
-        <v>113.9511843433125</v>
+        <v>91.82055322098456</v>
       </c>
       <c r="D159">
-        <v>2.358490841896405</v>
+        <v>5.856642296586275</v>
       </c>
       <c r="E159">
-        <v>0.0183971137070226</v>
+        <v>5.560747659572392E-09</v>
       </c>
     </row>
     <row r="160">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B160">
-        <v>-84.37237012380849</v>
+        <v>-168.4989568096392</v>
       </c>
       <c r="C160">
-        <v>113.5311462210523</v>
+        <v>91.4820913350361</v>
       </c>
       <c r="D160">
-        <v>-0.7431649633795661</v>
+        <v>-1.841879151981159</v>
       </c>
       <c r="E160">
-        <v>0.4574253266009838</v>
+        <v>0.06564999695292184</v>
       </c>
     </row>
     <row r="161">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B161">
-        <v>-127.1933469857684</v>
+        <v>-254.2052873058876</v>
       </c>
       <c r="C161">
-        <v>113.5574441217089</v>
+        <v>91.50328188078858</v>
       </c>
       <c r="D161">
-        <v>-1.120079339311695</v>
+        <v>-2.778100217619177</v>
       </c>
       <c r="E161">
-        <v>0.2627470005993318</v>
+        <v>0.005522011628188752</v>
       </c>
     </row>
     <row r="162">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B162">
-        <v>-136.5390695157215</v>
+        <v>-273.311862037633</v>
       </c>
       <c r="C162">
-        <v>113.5311462210521</v>
+        <v>91.48209133503507</v>
       </c>
       <c r="D162">
-        <v>-1.202657368136419</v>
+        <v>-2.987599627960869</v>
       </c>
       <c r="E162">
-        <v>0.229179908316387</v>
+        <v>0.002848116744035079</v>
       </c>
     </row>
     <row r="163">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B163">
-        <v>-132.3521148200828</v>
+        <v>-264.5799361984322</v>
       </c>
       <c r="C163">
-        <v>113.5311462210547</v>
+        <v>91.48209133503154</v>
       </c>
       <c r="D163">
-        <v>-1.165778019737262</v>
+        <v>-2.892150062786286</v>
       </c>
       <c r="E163">
-        <v>0.2437735057009884</v>
+        <v>0.003870070473672601</v>
       </c>
     </row>
     <row r="164">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B164">
-        <v>-126.7600741307871</v>
+        <v>-253.3105018427802</v>
       </c>
       <c r="C164">
-        <v>113.5311462210648</v>
+        <v>91.48209133503173</v>
       </c>
       <c r="D164">
-        <v>-1.116522455291372</v>
+        <v>-2.768962735177203</v>
       </c>
       <c r="E164">
-        <v>0.2642654269588454</v>
+        <v>0.005678627692761479</v>
       </c>
     </row>
     <row r="165">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B165">
-        <v>-54.3374876471922</v>
+        <v>-108.3874805380597</v>
       </c>
       <c r="C165">
-        <v>113.5311462210596</v>
+        <v>91.48209133503379</v>
       </c>
       <c r="D165">
-        <v>-0.4786130454579413</v>
+        <v>-1.184794520504713</v>
       </c>
       <c r="E165">
-        <v>0.6322400168458731</v>
+        <v>0.2362482129910694</v>
       </c>
     </row>
     <row r="166">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B166">
-        <v>-48.93451024356079</v>
+        <v>-97.60065996054023</v>
       </c>
       <c r="C166">
-        <v>113.5574441217005</v>
+        <v>91.50328188079206</v>
       </c>
       <c r="D166">
-        <v>-0.430922962576696</v>
+        <v>-1.066635621744056</v>
       </c>
       <c r="E166">
-        <v>0.6665475365073866</v>
+        <v>0.2862731447901508</v>
       </c>
     </row>
     <row r="167">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B167">
-        <v>-114.9693165837965</v>
+        <v>-229.638727936875</v>
       </c>
       <c r="C167">
-        <v>113.5574441216913</v>
+        <v>91.50328188078673</v>
       </c>
       <c r="D167">
-        <v>-1.012433112360227</v>
+        <v>-2.509622859604701</v>
       </c>
       <c r="E167">
-        <v>0.3113920659111581</v>
+        <v>0.01216934445006014</v>
       </c>
     </row>
     <row r="168">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B168">
-        <v>32.13668041596974</v>
+        <v>64.55535727403664</v>
       </c>
       <c r="C168">
-        <v>113.5574441216987</v>
+        <v>91.50328188078399</v>
       </c>
       <c r="D168">
-        <v>0.2829993283534024</v>
+        <v>0.7054977258427</v>
       </c>
       <c r="E168">
-        <v>0.777191952054639</v>
+        <v>0.4805878104734044</v>
       </c>
     </row>
     <row r="169">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B169">
-        <v>-57.10254104425393</v>
+        <v>-113.9282278585664</v>
       </c>
       <c r="C169">
-        <v>113.5574441217031</v>
+        <v>91.50328188078738</v>
       </c>
       <c r="D169">
-        <v>-0.5028515874578451</v>
+        <v>-1.245072586653174</v>
       </c>
       <c r="E169">
-        <v>0.6150962225323174</v>
+        <v>0.2132599924196204</v>
       </c>
     </row>
     <row r="170">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B170">
-        <v>-120.9710501748274</v>
+        <v>-241.6923749640472</v>
       </c>
       <c r="C170">
-        <v>113.5574441216978</v>
+        <v>91.50328188078961</v>
       </c>
       <c r="D170">
-        <v>-1.065285073210917</v>
+        <v>-2.641351982095284</v>
       </c>
       <c r="E170">
-        <v>0.2868110509436446</v>
+        <v>0.008325896051803158</v>
       </c>
     </row>
     <row r="171">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B171">
-        <v>-77.36560919644626</v>
+        <v>-154.4590139448104</v>
       </c>
       <c r="C171">
-        <v>113.5311462210647</v>
+        <v>91.48209133503504</v>
       </c>
       <c r="D171">
-        <v>-0.6814483229633045</v>
+        <v>-1.688407115433499</v>
       </c>
       <c r="E171">
-        <v>0.495627187129781</v>
+        <v>0.0914986868655461</v>
       </c>
     </row>
     <row r="172">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B172">
-        <v>-134.9440295793652</v>
+        <v>-269.6500668256515</v>
       </c>
       <c r="C172">
-        <v>113.5574441216997</v>
+        <v>91.50328188078471</v>
       </c>
       <c r="D172">
-        <v>-1.188332747562947</v>
+        <v>-2.946889568146483</v>
       </c>
       <c r="E172">
-        <v>0.2347726785534044</v>
+        <v>0.003249332186943271</v>
       </c>
     </row>
     <row r="173">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B173">
-        <v>-136.3621864371537</v>
+        <v>-272.4982406828275</v>
       </c>
       <c r="C173">
-        <v>113.5574441216927</v>
+        <v>91.5032818807868</v>
       </c>
       <c r="D173">
-        <v>-1.200821201039207</v>
+        <v>-2.978016034854863</v>
       </c>
       <c r="E173">
-        <v>0.2298914566188249</v>
+        <v>0.002938265599109682</v>
       </c>
     </row>
     <row r="174">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B174">
-        <v>-145.5169990411958</v>
+        <v>-290.8409225111075</v>
       </c>
       <c r="C174">
-        <v>113.9511843433086</v>
+        <v>91.82055322098147</v>
       </c>
       <c r="D174">
-        <v>-1.277011729889413</v>
+        <v>-3.167492596250758</v>
       </c>
       <c r="E174">
-        <v>0.2016720073070033</v>
+        <v>0.00156224382045957</v>
       </c>
     </row>
     <row r="175">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B175">
-        <v>-14.88252466072071</v>
+        <v>-29.52791072647557</v>
       </c>
       <c r="C175">
-        <v>113.5574441216955</v>
+        <v>91.50328188078966</v>
       </c>
       <c r="D175">
-        <v>-0.1310572351802109</v>
+        <v>-0.3226978324662113</v>
       </c>
       <c r="E175">
-        <v>0.8957366016986897</v>
+        <v>0.7469599203004772</v>
       </c>
     </row>
     <row r="176">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B176">
-        <v>-75.33136860493576</v>
+        <v>-150.3912270356216</v>
       </c>
       <c r="C176">
-        <v>113.5574441216991</v>
+        <v>91.50328188078862</v>
       </c>
       <c r="D176">
-        <v>-0.6633767533919077</v>
+        <v>-1.643561017096117</v>
       </c>
       <c r="E176">
-        <v>0.5071274043669336</v>
+        <v>0.1004338550697175</v>
       </c>
     </row>
     <row r="177">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B177">
-        <v>-75.59425419220386</v>
+        <v>-151.0748972430199</v>
       </c>
       <c r="C177">
-        <v>113.5574441217034</v>
+        <v>91.50328188078548</v>
       </c>
       <c r="D177">
-        <v>-0.6656917543088319</v>
+        <v>-1.651032554655766</v>
       </c>
       <c r="E177">
-        <v>0.5056464147498076</v>
+        <v>0.09889868067013333</v>
       </c>
     </row>
     <row r="178">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B178">
-        <v>-124.3596528279335</v>
+        <v>-248.4976747040783</v>
       </c>
       <c r="C178">
-        <v>113.5574441216978</v>
+        <v>91.50328188078821</v>
       </c>
       <c r="D178">
-        <v>-1.095125500488185</v>
+        <v>-2.715724175093793</v>
       </c>
       <c r="E178">
-        <v>0.2735273959383304</v>
+        <v>0.006673536779510309</v>
       </c>
     </row>
     <row r="179">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B179">
-        <v>-97.22462765278119</v>
+        <v>-194.2236995250684</v>
       </c>
       <c r="C179">
-        <v>113.5311462210568</v>
+        <v>91.48209133503153</v>
       </c>
       <c r="D179">
-        <v>-0.8563696473518807</v>
+        <v>-2.12307891840568</v>
       </c>
       <c r="E179">
-        <v>0.3918444925944183</v>
+        <v>0.03387736120178311</v>
       </c>
     </row>
     <row r="180">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B180">
-        <v>-96.58942524133072</v>
+        <v>-192.9724286137321</v>
       </c>
       <c r="C180">
-        <v>113.5574441216921</v>
+        <v>91.50328188078583</v>
       </c>
       <c r="D180">
-        <v>-0.8505776612744305</v>
+        <v>-2.108912649331467</v>
       </c>
       <c r="E180">
-        <v>0.3950547619803226</v>
+        <v>0.0350838561798725</v>
       </c>
     </row>
     <row r="181">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B181">
-        <v>-131.3034522675962</v>
+        <v>-262.584152785017</v>
       </c>
       <c r="C181">
-        <v>113.5574441217</v>
+        <v>91.50328188078834</v>
       </c>
       <c r="D181">
-        <v>-1.156273402269232</v>
+        <v>-2.869669233581316</v>
       </c>
       <c r="E181">
-        <v>0.2476381910191141</v>
+        <v>0.004154858812640038</v>
       </c>
     </row>
     <row r="182">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B182">
-        <v>163.7202695855783</v>
+        <v>327.6669786442576</v>
       </c>
       <c r="C182">
-        <v>113.5574441217013</v>
+        <v>91.50328188078456</v>
       </c>
       <c r="D182">
-        <v>1.441739648614464</v>
+        <v>3.580931436657758</v>
       </c>
       <c r="E182">
-        <v>0.1494538837695245</v>
+        <v>0.0003510546927903317</v>
       </c>
     </row>
     <row r="183">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B183">
-        <v>-82.1145311067458</v>
+        <v>-164.0116526960688</v>
       </c>
       <c r="C183">
-        <v>113.5574441216984</v>
+        <v>91.5032818807847</v>
       </c>
       <c r="D183">
-        <v>-0.7231100677005772</v>
+        <v>-1.792412789191014</v>
       </c>
       <c r="E183">
-        <v>0.4696544172972442</v>
+        <v>0.07322734470913332</v>
       </c>
     </row>
     <row r="184">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B184">
-        <v>-125.0093683371515</v>
+        <v>-249.7761658709862</v>
       </c>
       <c r="C184">
-        <v>113.5574441217065</v>
+        <v>91.50328188078667</v>
       </c>
       <c r="D184">
-        <v>-1.100846970482809</v>
+        <v>-2.729696255008671</v>
       </c>
       <c r="E184">
-        <v>0.271029307491961</v>
+        <v>0.006398286414237892</v>
       </c>
     </row>
     <row r="185">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B185">
-        <v>-67.86486217408873</v>
+        <v>-135.4581368015162</v>
       </c>
       <c r="C185">
-        <v>113.5311462210625</v>
+        <v>91.48209133503381</v>
       </c>
       <c r="D185">
-        <v>-0.5977642649880895</v>
+        <v>-1.48070660415304</v>
       </c>
       <c r="E185">
-        <v>0.5500309761174136</v>
+        <v>0.1388520698575471</v>
       </c>
     </row>
     <row r="186">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B186">
-        <v>-113.4971987962825</v>
+        <v>-226.7137771548731</v>
       </c>
       <c r="C186">
-        <v>113.5311462210598</v>
+        <v>91.48209133503474</v>
       </c>
       <c r="D186">
-        <v>-0.9997009858007492</v>
+        <v>-2.478231245551433</v>
       </c>
       <c r="E186">
-        <v>0.317515524814898</v>
+        <v>0.01329062319692417</v>
       </c>
     </row>
     <row r="187">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B187">
-        <v>-121.9358863505376</v>
+        <v>-243.6838515970101</v>
       </c>
       <c r="C187">
-        <v>113.5311462210558</v>
+        <v>91.48209133503367</v>
       </c>
       <c r="D187">
-        <v>-1.074030258737254</v>
+        <v>-2.663732846952196</v>
       </c>
       <c r="E187">
-        <v>0.2828737110379899</v>
+        <v>0.00779377892780471</v>
       </c>
     </row>
     <row r="188">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B188">
-        <v>-44.00809880714448</v>
+        <v>-87.80130381001112</v>
       </c>
       <c r="C188">
-        <v>113.5311462210614</v>
+        <v>91.48209133503335</v>
       </c>
       <c r="D188">
-        <v>-0.3876301814257596</v>
+        <v>-0.9597649390027373</v>
       </c>
       <c r="E188">
-        <v>0.6983102934944653</v>
+        <v>0.3372967499692122</v>
       </c>
     </row>
     <row r="189">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B189">
-        <v>-105.1522777642766</v>
+        <v>-210.0569398365637</v>
       </c>
       <c r="C189">
-        <v>113.5574441217049</v>
+        <v>91.50328188078512</v>
       </c>
       <c r="D189">
-        <v>-0.9259831319519655</v>
+        <v>-2.295621922175819</v>
       </c>
       <c r="E189">
-        <v>0.3545104420006762</v>
+        <v>0.02180694890901159</v>
       </c>
     </row>
     <row r="190">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B190">
-        <v>-129.1641118562946</v>
+        <v>-258.1082825030553</v>
       </c>
       <c r="C190">
-        <v>113.5311462210572</v>
+        <v>91.48209133503228</v>
       </c>
       <c r="D190">
-        <v>-1.137697593617159</v>
+        <v>-2.821407761195496</v>
       </c>
       <c r="E190">
-        <v>0.2553147164934204</v>
+        <v>0.004831498024924967</v>
       </c>
     </row>
     <row r="191">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B191">
-        <v>-115.0920837571309</v>
+        <v>-229.9073862793093</v>
       </c>
       <c r="C191">
-        <v>113.5311462210548</v>
+        <v>91.48209133503315</v>
       </c>
       <c r="D191">
-        <v>-1.013748980680921</v>
+        <v>-2.513140910140804</v>
       </c>
       <c r="E191">
-        <v>0.3107636769221509</v>
+        <v>0.01204906485273156</v>
       </c>
     </row>
     <row r="192">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B192">
-        <v>-125.5543693085477</v>
+        <v>-250.9119805636626</v>
       </c>
       <c r="C192">
-        <v>113.5574441216992</v>
+        <v>91.50328188078593</v>
       </c>
       <c r="D192">
-        <v>-1.105646312134248</v>
+        <v>-2.742109085120691</v>
       </c>
       <c r="E192">
-        <v>0.2689459321278081</v>
+        <v>0.006162374900921777</v>
       </c>
     </row>
     <row r="193">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B193">
-        <v>-48.49354409635674</v>
+        <v>-96.71509699291198</v>
       </c>
       <c r="C193">
-        <v>113.5311462210588</v>
+        <v>91.48209133503163</v>
       </c>
       <c r="D193">
-        <v>-0.4271386814146488</v>
+        <v>-1.057202514519653</v>
       </c>
       <c r="E193">
-        <v>0.6693012414248058</v>
+        <v>0.2905547811791631</v>
       </c>
     </row>
     <row r="194">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B194">
-        <v>-135.4626671130372</v>
+        <v>-270.7574793440122</v>
       </c>
       <c r="C194">
-        <v>113.5311462210625</v>
+        <v>91.48209133503245</v>
       </c>
       <c r="D194">
-        <v>-1.193176248298161</v>
+        <v>-2.959677412187968</v>
       </c>
       <c r="E194">
-        <v>0.2328709087489942</v>
+        <v>0.003118070258238216</v>
       </c>
     </row>
     <row r="195">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B195">
-        <v>-135.8354272028394</v>
+        <v>-271.453358628759</v>
       </c>
       <c r="C195">
-        <v>113.5574441217024</v>
+        <v>91.50328188078591</v>
       </c>
       <c r="D195">
-        <v>-1.196182498236409</v>
+        <v>-2.966596968428074</v>
       </c>
       <c r="E195">
-        <v>0.2316960362960912</v>
+        <v>0.003049078663111522</v>
       </c>
     </row>
     <row r="196">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B196">
-        <v>-25.25814686179372</v>
+        <v>-50.25978985523489</v>
       </c>
       <c r="C196">
-        <v>113.531146221059</v>
+        <v>91.48209133503083</v>
       </c>
       <c r="D196">
-        <v>-0.2224776874234408</v>
+        <v>-0.5493948500933442</v>
       </c>
       <c r="E196">
-        <v>0.8239533655477099</v>
+        <v>0.5827996538836562</v>
       </c>
     </row>
     <row r="197">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B197">
-        <v>-125.4875172996776</v>
+        <v>-250.7591138448992</v>
       </c>
       <c r="C197">
-        <v>113.5311462210612</v>
+        <v>91.48209133503155</v>
       </c>
       <c r="D197">
-        <v>-1.105313576728413</v>
+        <v>-2.741073254726471</v>
       </c>
       <c r="E197">
-        <v>0.2690900154477952</v>
+        <v>0.006181757248009704</v>
       </c>
     </row>
     <row r="198">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B198">
-        <v>-102.9265226065719</v>
+        <v>-205.6895854410663</v>
       </c>
       <c r="C198">
-        <v>113.5311462210563</v>
+        <v>91.48209133503353</v>
       </c>
       <c r="D198">
-        <v>-0.9065928252513534</v>
+        <v>-2.248413677905245</v>
       </c>
       <c r="E198">
-        <v>0.3646766022290906</v>
+        <v>0.02466505597019777</v>
       </c>
     </row>
     <row r="199">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B199">
-        <v>-127.3042797188735</v>
+        <v>-254.4030184011465</v>
       </c>
       <c r="C199">
-        <v>113.5311462210564</v>
+        <v>91.48209133503255</v>
       </c>
       <c r="D199">
-        <v>-1.121315902783184</v>
+        <v>-2.780905144258811</v>
       </c>
       <c r="E199">
-        <v>0.2622205286974307</v>
+        <v>0.00547472400575682</v>
       </c>
     </row>
     <row r="200">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B200">
-        <v>-80.2782842939298</v>
+        <v>-160.2595157064152</v>
       </c>
       <c r="C200">
-        <v>113.53114622106</v>
+        <v>91.48209133503146</v>
       </c>
       <c r="D200">
-        <v>-0.7071036183992849</v>
+        <v>-1.751812987303742</v>
       </c>
       <c r="E200">
-        <v>0.4795431550781392</v>
+        <v>0.07996875089390947</v>
       </c>
     </row>
     <row r="201">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B201">
-        <v>-101.2046074710789</v>
+        <v>-202.2597156138397</v>
       </c>
       <c r="C201">
-        <v>113.5311462210553</v>
+        <v>91.48209133503387</v>
       </c>
       <c r="D201">
-        <v>-0.8914259288285921</v>
+        <v>-2.210921423659917</v>
       </c>
       <c r="E201">
-        <v>0.3727541694417504</v>
+        <v>0.02716105872916203</v>
       </c>
     </row>
     <row r="202">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B202">
-        <v>-99.84517002309043</v>
+        <v>-199.5720524495111</v>
       </c>
       <c r="C202">
-        <v>113.5311462210564</v>
+        <v>91.48209133503335</v>
       </c>
       <c r="D202">
-        <v>-0.879451792274536</v>
+        <v>-2.18154230557128</v>
       </c>
       <c r="E202">
-        <v>0.3792090317553484</v>
+        <v>0.02926662482355698</v>
       </c>
     </row>
     <row r="203">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B203">
-        <v>-37.60227838392548</v>
+        <v>-74.94445936523024</v>
       </c>
       <c r="C203">
-        <v>113.5311462210572</v>
+        <v>91.48209133503488</v>
       </c>
       <c r="D203">
-        <v>-0.3312067184692194</v>
+        <v>-0.819225471035212</v>
       </c>
       <c r="E203">
-        <v>0.7405056434280558</v>
+        <v>0.4127614568358784</v>
       </c>
     </row>
     <row r="204">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B204">
-        <v>-144.7586571325037</v>
+        <v>-289.4800199678426</v>
       </c>
       <c r="C204">
-        <v>113.5311462210576</v>
+        <v>91.48209133503447</v>
       </c>
       <c r="D204">
-        <v>-1.275056774734245</v>
+        <v>-3.164335398801512</v>
       </c>
       <c r="E204">
-        <v>0.2023629794720447</v>
+        <v>0.001579200303358235</v>
       </c>
     </row>
     <row r="205">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B205">
-        <v>-111.7590256877894</v>
+        <v>-223.3738747722694</v>
       </c>
       <c r="C205">
-        <v>113.5311462210575</v>
+        <v>91.48209133503187</v>
       </c>
       <c r="D205">
-        <v>-0.9843908866222705</v>
+        <v>-2.441722434549672</v>
       </c>
       <c r="E205">
-        <v>0.3249827167036591</v>
+        <v>0.01470885799475668</v>
       </c>
     </row>
     <row r="206">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B206">
-        <v>-137.3770979535177</v>
+        <v>-274.5792545597241</v>
       </c>
       <c r="C206">
-        <v>113.5311462210541</v>
+        <v>91.48209133503285</v>
       </c>
       <c r="D206">
-        <v>-1.210038853003683</v>
+        <v>-3.001453623902612</v>
       </c>
       <c r="E206">
-        <v>0.2263352728987023</v>
+        <v>0.002722260559082514</v>
       </c>
     </row>
     <row r="207">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B207">
-        <v>-133.2753930964058</v>
+        <v>-266.6244873890026</v>
       </c>
       <c r="C207">
-        <v>113.5311462210578</v>
+        <v>91.48209133503434</v>
       </c>
       <c r="D207">
-        <v>-1.173910398446113</v>
+        <v>-2.914499258795312</v>
       </c>
       <c r="E207">
-        <v>0.2405005965692764</v>
+        <v>0.00360465401817379</v>
       </c>
     </row>
     <row r="208">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B208">
-        <v>-97.57782703515981</v>
+        <v>-194.8712928370861</v>
       </c>
       <c r="C208">
-        <v>113.5311462210605</v>
+        <v>91.48209133503316</v>
       </c>
       <c r="D208">
-        <v>-0.8594806824654315</v>
+        <v>-2.130157826447284</v>
       </c>
       <c r="E208">
-        <v>0.3901267242546544</v>
+        <v>0.03328789521696356</v>
       </c>
     </row>
     <row r="209">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B209">
-        <v>-135.6509683703843</v>
+        <v>-271.1239724755611</v>
       </c>
       <c r="C209">
-        <v>113.5311462210607</v>
+        <v>91.48209133503477</v>
       </c>
       <c r="D209">
-        <v>-1.19483483507031</v>
+        <v>-2.963683585704485</v>
       </c>
       <c r="E209">
-        <v>0.2322221947622058</v>
+        <v>0.00307795499349067</v>
       </c>
     </row>
     <row r="210">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B210">
-        <v>-133.7407383475359</v>
+        <v>-267.3311529828026</v>
       </c>
       <c r="C210">
-        <v>113.5311462210583</v>
+        <v>91.48209133503347</v>
       </c>
       <c r="D210">
-        <v>-1.178009231820203</v>
+        <v>-2.922223891928309</v>
       </c>
       <c r="E210">
-        <v>0.2388627946104936</v>
+        <v>0.003516842560358114</v>
       </c>
     </row>
     <row r="211">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B211">
-        <v>2204.714561869976</v>
+        <v>4409.689242809271</v>
       </c>
       <c r="C211">
-        <v>113.531146221056</v>
+        <v>91.48209133503208</v>
       </c>
       <c r="D211">
-        <v>19.41946888809865</v>
+        <v>48.20275945222765</v>
       </c>
       <c r="E211">
-        <v>2.321236592756876E-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B212">
-        <v>394.9921837937176</v>
+        <v>790.311780157613</v>
       </c>
       <c r="C212">
-        <v>113.531146221056</v>
+        <v>91.48209133503342</v>
       </c>
       <c r="D212">
-        <v>3.479152610902297</v>
+        <v>8.638978062528837</v>
       </c>
       <c r="E212">
-        <v>0.000508352727003865</v>
+        <v>1.18858334091331E-17</v>
       </c>
     </row>
     <row r="213">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B213">
-        <v>-59.57978449920907</v>
+        <v>-118.9975119760463</v>
       </c>
       <c r="C213">
-        <v>113.5574441217016</v>
+        <v>91.5032818807869</v>
       </c>
       <c r="D213">
-        <v>-0.5246664801239832</v>
+        <v>-1.300472611802926</v>
       </c>
       <c r="E213">
-        <v>0.5998440508003622</v>
+        <v>0.1935981758072444</v>
       </c>
     </row>
     <row r="214">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B214">
-        <v>30.60120731703659</v>
+        <v>61.44942970225787</v>
       </c>
       <c r="C214">
-        <v>113.5311462210546</v>
+        <v>91.48209133503285</v>
       </c>
       <c r="D214">
-        <v>0.2695401952293646</v>
+        <v>0.6717099358519579</v>
       </c>
       <c r="E214">
-        <v>0.7875278765295561</v>
+        <v>0.501850773219956</v>
       </c>
     </row>
     <row r="215">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B215">
-        <v>-0.6088699104206043</v>
+        <v>-0.9576212235146366</v>
       </c>
       <c r="C215">
-        <v>113.5311462210589</v>
+        <v>91.4820913350335</v>
       </c>
       <c r="D215">
-        <v>-0.005363020903841321</v>
+        <v>-0.01046785452255955</v>
       </c>
       <c r="E215">
-        <v>0.995721215571483</v>
+        <v>0.9916491218959489</v>
       </c>
     </row>
     <row r="216">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B216">
-        <v>-35.59273718074135</v>
+        <v>-70.97516486806008</v>
       </c>
       <c r="C216">
-        <v>113.5311462210595</v>
+        <v>91.48209133503356</v>
       </c>
       <c r="D216">
-        <v>-0.3135063668910538</v>
+        <v>-0.7758367111233688</v>
       </c>
       <c r="E216">
-        <v>0.7539122818628585</v>
+        <v>0.4379428340596138</v>
       </c>
     </row>
     <row r="217">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B217">
-        <v>-57.12682451834328</v>
+        <v>-113.9975059150401</v>
       </c>
       <c r="C217">
-        <v>113.5311462210594</v>
+        <v>91.48209133503255</v>
       </c>
       <c r="D217">
-        <v>-0.5031819586064088</v>
+        <v>-1.246118275734973</v>
       </c>
       <c r="E217">
-        <v>0.6148639706306653</v>
+        <v>0.2128759853810972</v>
       </c>
     </row>
     <row r="218">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B218">
-        <v>27.82899353628972</v>
+        <v>55.87863821004446</v>
       </c>
       <c r="C218">
-        <v>113.5311462210568</v>
+        <v>91.48209133503251</v>
       </c>
       <c r="D218">
-        <v>0.2451221049253198</v>
+        <v>0.6108150501872718</v>
       </c>
       <c r="E218">
-        <v>0.806374424314024</v>
+        <v>0.5413957483738983</v>
       </c>
     </row>
     <row r="219">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B219">
-        <v>-63.07265958358356</v>
+        <v>-125.9076093542056</v>
       </c>
       <c r="C219">
-        <v>113.5311462210565</v>
+        <v>91.48209133503207</v>
       </c>
       <c r="D219">
-        <v>-0.5555537989616945</v>
+        <v>-1.376308821943062</v>
       </c>
       <c r="E219">
-        <v>0.5785468987932992</v>
+        <v>0.1688896848965503</v>
       </c>
     </row>
     <row r="220">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B220">
-        <v>-148.832355588917</v>
+        <v>-297.9509606841638</v>
       </c>
       <c r="C220">
-        <v>113.9511843433077</v>
+        <v>91.82055322098164</v>
       </c>
       <c r="D220">
-        <v>-1.306106263367309</v>
+        <v>-3.244926655659486</v>
       </c>
       <c r="E220">
-        <v>0.1915913003598121</v>
+        <v>0.001195405874382347</v>
       </c>
     </row>
     <row r="221">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B221">
-        <v>113.0842316902245</v>
+        <v>226.4219886267992</v>
       </c>
       <c r="C221">
-        <v>113.5311462210571</v>
+        <v>91.48209133503262</v>
       </c>
       <c r="D221">
-        <v>0.9960635072778843</v>
+        <v>2.475041675616919</v>
       </c>
       <c r="E221">
-        <v>0.319279359548218</v>
+        <v>0.01340951495570792</v>
       </c>
     </row>
     <row r="222">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B222">
-        <v>-125.743020513288</v>
+        <v>-251.3849916707787</v>
       </c>
       <c r="C222">
-        <v>113.5311462210593</v>
+        <v>91.48209133503225</v>
       </c>
       <c r="D222">
-        <v>-1.107564088787148</v>
+        <v>-2.74791478859112</v>
       </c>
       <c r="E222">
-        <v>0.2681165164347531</v>
+        <v>0.006054749454627141</v>
       </c>
     </row>
     <row r="223">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B223">
-        <v>72.95243689346545</v>
+        <v>146.1196758139329</v>
       </c>
       <c r="C223">
-        <v>121.4228721437574</v>
+        <v>97.84115328131068</v>
       </c>
       <c r="D223">
-        <v>0.6008129737459521</v>
+        <v>1.493437790883483</v>
       </c>
       <c r="E223">
-        <v>0.5479985014788824</v>
+        <v>0.1354901616487817</v>
       </c>
     </row>
     <row r="224">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B224">
-        <v>0.1387232136961083</v>
+        <v>0.570748220546312</v>
       </c>
       <c r="C224">
-        <v>113.5311462210589</v>
+        <v>91.482091335033</v>
       </c>
       <c r="D224">
-        <v>0.001221895649903837</v>
+        <v>0.006238906568675528</v>
       </c>
       <c r="E224">
-        <v>0.9990251293177583</v>
+        <v>0.9950227659385419</v>
       </c>
     </row>
     <row r="225">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B225">
-        <v>-123.2962680332738</v>
+        <v>-246.5249085827508</v>
       </c>
       <c r="C225">
-        <v>113.5574441216989</v>
+        <v>91.50328188078777</v>
       </c>
       <c r="D225">
-        <v>-1.085761210873484</v>
+        <v>-2.694164662901689</v>
       </c>
       <c r="E225">
-        <v>0.2776498847754799</v>
+        <v>0.007119197477469626</v>
       </c>
     </row>
     <row r="226">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B226">
-        <v>-121.5413659066466</v>
+        <v>-243.2488679584867</v>
       </c>
       <c r="C226">
-        <v>113.5574441217001</v>
+        <v>91.50328188078792</v>
       </c>
       <c r="D226">
-        <v>-1.070307339573354</v>
+        <v>-2.658362224377871</v>
       </c>
       <c r="E226">
-        <v>0.2845453768497792</v>
+        <v>0.007918609724618823</v>
       </c>
     </row>
     <row r="227">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B227">
-        <v>-128.8030648252269</v>
+        <v>-257.8593260853863</v>
       </c>
       <c r="C227">
-        <v>113.5311462210575</v>
+        <v>91.48209133503278</v>
       </c>
       <c r="D227">
-        <v>-1.134517435192924</v>
+        <v>-2.818686393395118</v>
       </c>
       <c r="E227">
-        <v>0.2566453435300543</v>
+        <v>0.004872470526853936</v>
       </c>
     </row>
     <row r="228">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B228">
-        <v>-128.9786028931153</v>
+        <v>-258.0692022492879</v>
       </c>
       <c r="C228">
-        <v>113.5574441217002</v>
+        <v>91.50328188078761</v>
       </c>
       <c r="D228">
-        <v>-1.135800509519113</v>
+        <v>-2.820327281654289</v>
       </c>
       <c r="E228">
-        <v>0.2561079070467182</v>
+        <v>0.004847728070441816</v>
       </c>
     </row>
     <row r="229">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B229">
-        <v>-129.0428160972336</v>
+        <v>-258.2720058951675</v>
       </c>
       <c r="C229">
-        <v>113.5311462210581</v>
+        <v>91.48209133503319</v>
       </c>
       <c r="D229">
-        <v>-1.136629201699175</v>
+        <v>-2.823197438166369</v>
       </c>
       <c r="E229">
-        <v>0.2557612118557551</v>
+        <v>0.004804723237885298</v>
       </c>
     </row>
     <row r="230">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B230">
-        <v>-85.91803003169305</v>
+        <v>-171.9377149666989</v>
       </c>
       <c r="C230">
-        <v>113.5311462210576</v>
+        <v>91.48209133503285</v>
       </c>
       <c r="D230">
-        <v>-0.7567793763343249</v>
+        <v>-1.879468565459607</v>
       </c>
       <c r="E230">
-        <v>0.4492264884387741</v>
+        <v>0.06033485145587823</v>
       </c>
     </row>
     <row r="231">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B231">
-        <v>-140.3612386727232</v>
+        <v>-280.6863476517971</v>
       </c>
       <c r="C231">
-        <v>113.9511843433081</v>
+        <v>91.82055322098201</v>
       </c>
       <c r="D231">
-        <v>-1.231766387349235</v>
+        <v>-3.056901072859766</v>
       </c>
       <c r="E231">
-        <v>0.2181085528815276</v>
+        <v>0.002267823408645464</v>
       </c>
     </row>
     <row r="232">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B232">
-        <v>-142.9670004426957</v>
+        <v>-287.0165270944511</v>
       </c>
       <c r="C232">
-        <v>113.9511843433076</v>
+        <v>91.82055322098201</v>
       </c>
       <c r="D232">
-        <v>-1.254633738706659</v>
+        <v>-3.125841840700919</v>
       </c>
       <c r="E232">
-        <v>0.2096848335867672</v>
+        <v>0.001800031875889154</v>
       </c>
     </row>
     <row r="233">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B233">
-        <v>-139.5163917845075</v>
+        <v>-278.9666603306049</v>
       </c>
       <c r="C233">
-        <v>113.9511843433077</v>
+        <v>91.82055322098212</v>
       </c>
       <c r="D233">
-        <v>-1.224352274954668</v>
+        <v>-3.038172288716483</v>
       </c>
       <c r="E233">
-        <v>0.2208912528802342</v>
+        <v>0.002412895021377414</v>
       </c>
     </row>
     <row r="234">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B234">
-        <v>-137.4992777549226</v>
+        <v>-274.9464857119603</v>
       </c>
       <c r="C234">
-        <v>113.5311462210576</v>
+        <v>91.48209133503305</v>
       </c>
       <c r="D234">
-        <v>-1.211115031704132</v>
+        <v>-3.005467864798032</v>
       </c>
       <c r="E234">
-        <v>0.2259226553690101</v>
+        <v>0.002686755457736262</v>
       </c>
     </row>
     <row r="235">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B235">
-        <v>-117.6831412069301</v>
+        <v>-235.3586504049256</v>
       </c>
       <c r="C235">
-        <v>113.5311462210573</v>
+        <v>91.48209133503298</v>
       </c>
       <c r="D235">
-        <v>-1.036571417836198</v>
+        <v>-2.572729230062925</v>
       </c>
       <c r="E235">
-        <v>0.2999981107257436</v>
+        <v>0.01016599110938472</v>
       </c>
     </row>
     <row r="236">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B236">
-        <v>-122.9843215979156</v>
+        <v>-245.7900214259206</v>
       </c>
       <c r="C236">
-        <v>113.5574441217006</v>
+        <v>91.50328188078727</v>
       </c>
       <c r="D236">
-        <v>-1.083014174448239</v>
+        <v>-2.68613339733696</v>
       </c>
       <c r="E236">
-        <v>0.2788672152703143</v>
+        <v>0.007291932141481085</v>
       </c>
     </row>
     <row r="237">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B237">
-        <v>-110.5810652838492</v>
+        <v>-221.0488770488755</v>
       </c>
       <c r="C237">
-        <v>113.5574441217004</v>
+        <v>91.50328188078737</v>
       </c>
       <c r="D237">
-        <v>-0.9737896633649007</v>
+        <v>-2.415748074881765</v>
       </c>
       <c r="E237">
-        <v>0.330219693865623</v>
+        <v>0.01579756586741519</v>
       </c>
     </row>
     <row r="238">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B238">
-        <v>-128.60119701087</v>
+        <v>-257.1038204020943</v>
       </c>
       <c r="C238">
-        <v>113.5311462210575</v>
+        <v>91.48209133503302</v>
       </c>
       <c r="D238">
-        <v>-1.132739352075856</v>
+        <v>-2.810427884300416</v>
       </c>
       <c r="E238">
-        <v>0.2573914166586466</v>
+        <v>0.004998742499117848</v>
       </c>
     </row>
     <row r="239">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B239">
-        <v>-124.8697609333878</v>
+        <v>-249.6289983346075</v>
       </c>
       <c r="C239">
-        <v>113.5574441217004</v>
+        <v>91.5032818807874</v>
       </c>
       <c r="D239">
-        <v>-1.099617571522338</v>
+        <v>-2.728087924319807</v>
       </c>
       <c r="E239">
-        <v>0.2715647598689911</v>
+        <v>0.006429441342866082</v>
       </c>
     </row>
     <row r="240">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B240">
-        <v>2.576856978556463</v>
+        <v>5.220252147443102</v>
       </c>
       <c r="C240">
-        <v>22.12392126721475</v>
+        <v>17.82720119918296</v>
       </c>
       <c r="D240">
-        <v>0.1164737908543855</v>
+        <v>0.2928251097363703</v>
       </c>
       <c r="E240">
-        <v>0.9072828861884645</v>
+        <v>0.7696880981538183</v>
       </c>
     </row>
     <row r="241">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B241">
-        <v>-7.729209863077466</v>
+        <v>-15.39131410272656</v>
       </c>
       <c r="C241">
-        <v>22.15068981092801</v>
+        <v>17.8487709837083</v>
       </c>
       <c r="D241">
-        <v>-0.3489376596869805</v>
+        <v>-0.8623178658505499</v>
       </c>
       <c r="E241">
-        <v>0.7271544226187107</v>
+        <v>0.388622428847311</v>
       </c>
     </row>
     <row r="242">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B242">
-        <v>-0.4769966989867929</v>
+        <v>-0.8632724369897006</v>
       </c>
       <c r="C242">
-        <v>22.15068981092795</v>
+        <v>17.84877098370826</v>
       </c>
       <c r="D242">
-        <v>-0.02153416905109061</v>
+        <v>-0.04836593162507748</v>
       </c>
       <c r="E242">
-        <v>0.9828206176800198</v>
+        <v>0.961429739310555</v>
       </c>
     </row>
     <row r="243">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B243">
-        <v>16.4326624507498</v>
+        <v>32.98519413652541</v>
       </c>
       <c r="C243">
-        <v>22.12392126721462</v>
+        <v>17.82720119918296</v>
       </c>
       <c r="D243">
-        <v>0.7427554208078527</v>
+        <v>1.850273285637072</v>
       </c>
       <c r="E243">
-        <v>0.457673255612857</v>
+        <v>0.06443072568503075</v>
       </c>
     </row>
     <row r="244">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B244">
-        <v>6.454491753251745</v>
+        <v>13.04890559395795</v>
       </c>
       <c r="C244">
-        <v>23.92023565135228</v>
+        <v>19.2746506615196</v>
       </c>
       <c r="D244">
-        <v>0.2698339534496541</v>
+        <v>0.6769982928930126</v>
       </c>
       <c r="E244">
-        <v>0.7873018778658468</v>
+        <v>0.4984901956893233</v>
       </c>
     </row>
     <row r="245">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B245">
-        <v>11.50601607083681</v>
+        <v>23.16607314482765</v>
       </c>
       <c r="C245">
-        <v>27.8340122917446</v>
+        <v>22.42832684641586</v>
       </c>
       <c r="D245">
-        <v>0.413379715085109</v>
+        <v>1.03289350576455</v>
       </c>
       <c r="E245">
-        <v>0.6793505273892293</v>
+        <v>0.3017863774136332</v>
       </c>
     </row>
     <row r="246">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B246">
-        <v>13.70086311358532</v>
+        <v>27.58070487131823</v>
       </c>
       <c r="C246">
-        <v>27.83401229174452</v>
+        <v>22.42832684641585</v>
       </c>
       <c r="D246">
-        <v>0.4922345715011754</v>
+        <v>1.229726366134429</v>
       </c>
       <c r="E246">
-        <v>0.622580460491859</v>
+        <v>0.2189532140588041</v>
       </c>
     </row>
     <row r="247">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B247">
-        <v>3.786805281748931</v>
+        <v>7.783606432515537</v>
       </c>
       <c r="C247">
-        <v>27.93563420637906</v>
+        <v>22.51021261596618</v>
       </c>
       <c r="D247">
-        <v>0.1355546558840686</v>
+        <v>0.3457811156787891</v>
       </c>
       <c r="E247">
-        <v>0.8921801542843782</v>
+        <v>0.7295458447416391</v>
       </c>
     </row>
   </sheetData>
